--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_8_4.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_8_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3203353.097468899</v>
+        <v>-3204065.70194294</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058539</v>
+        <v>632041.4518058541</v>
       </c>
     </row>
     <row r="9">
@@ -1373,22 +1373,22 @@
         <v>171.8758480566235</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>159.442510317672</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>59.25380270696192</v>
       </c>
       <c r="F11" t="n">
-        <v>74.26869713470768</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>188.5623770505815</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>168.688308049446</v>
+        <v>168.6883080494461</v>
       </c>
       <c r="I11" t="n">
-        <v>62.66716559384186</v>
+        <v>62.66716559384196</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,13 +1415,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.53078872718758</v>
+        <v>16.53078872718768</v>
       </c>
       <c r="S11" t="n">
-        <v>49.17968824550857</v>
+        <v>49.17968824550866</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>44.13476116065499</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>136.2671108547588</v>
+        <v>9.188502199810642</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1464,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>13.25780256851654</v>
+        <v>13.25780256851663</v>
       </c>
       <c r="T12" t="n">
-        <v>36.64054962134793</v>
+        <v>36.64054962134801</v>
       </c>
       <c r="U12" t="n">
-        <v>58.89840834437481</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="V12" t="n">
         <v>188.5623770505815</v>
       </c>
       <c r="W12" t="n">
-        <v>88.37493425245623</v>
+        <v>88.37493425245631</v>
       </c>
       <c r="X12" t="n">
-        <v>38.98326511491524</v>
+        <v>162.1316933051318</v>
       </c>
       <c r="Y12" t="n">
-        <v>45.05463680947025</v>
+        <v>45.05463680947034</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.0935346565015</v>
+        <v>25.09353465650159</v>
       </c>
       <c r="S13" t="n">
-        <v>57.1057683041273</v>
+        <v>57.10576830412739</v>
       </c>
       <c r="T13" t="n">
-        <v>45.43126511605246</v>
+        <v>45.43126511605254</v>
       </c>
       <c r="U13" t="n">
-        <v>110.3268994226096</v>
+        <v>110.3268994226097</v>
       </c>
       <c r="V13" t="n">
-        <v>66.77936585989454</v>
+        <v>66.77936585989463</v>
       </c>
       <c r="W13" t="n">
         <v>111.98105776478</v>
       </c>
       <c r="X13" t="n">
-        <v>43.58980608368717</v>
+        <v>43.58980608368725</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.81162348961305</v>
+        <v>38.81162348961314</v>
       </c>
     </row>
     <row r="14">
@@ -1610,19 +1610,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>156.3270925087943</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="G14" t="n">
-        <v>188.5623770505815</v>
+        <v>123.2926451134459</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>168.6883080494461</v>
       </c>
       <c r="I14" t="n">
         <v>62.66716559384196</v>
@@ -1652,19 +1652,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.53078872718767</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>49.17968824550866</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>44.134761160655</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>71.82086528673096</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>142.5501342845967</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>188.5623770505815</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>13.25780256851662</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="T15" t="n">
-        <v>188.5623770505815</v>
+        <v>36.64054962134801</v>
       </c>
       <c r="U15" t="n">
-        <v>160.2982950298237</v>
+        <v>58.89840834437489</v>
       </c>
       <c r="V15" t="n">
-        <v>62.31927159084697</v>
+        <v>116.4910875292735</v>
       </c>
       <c r="W15" t="n">
         <v>88.37493425245631</v>
       </c>
       <c r="X15" t="n">
-        <v>38.98326511491533</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="Y15" t="n">
         <v>45.05463680947034</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.09353465650158</v>
+        <v>25.09353465650159</v>
       </c>
       <c r="S16" t="n">
         <v>57.10576830412739</v>
@@ -1859,7 +1859,7 @@
         <v>121.4132451535436</v>
       </c>
       <c r="H17" t="n">
-        <v>49.59336558194013</v>
+        <v>49.59336558194015</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1920,13 +1920,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1938,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>60.7671653297211</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>134.7086383504341</v>
+        <v>134.7086383504342</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="T18" t="n">
-        <v>188.5623770505815</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>43.18898600863383</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>121.4132451535436</v>
       </c>
       <c r="H20" t="n">
-        <v>49.59336558194013</v>
+        <v>49.59336558194015</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,10 +2138,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>23.45519181709066</v>
+        <v>23.45519181709079</v>
       </c>
       <c r="W20" t="n">
-        <v>40.47187203370567</v>
+        <v>40.47187203370585</v>
       </c>
       <c r="X20" t="n">
         <v>62.3581225026449</v>
@@ -2160,10 +2160,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>52.9262403726279</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2178,10 +2178,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J21" t="n">
-        <v>52.45818464705465</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2202,25 +2202,25 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.846506480668527</v>
       </c>
       <c r="R21" t="n">
-        <v>113.6275570590976</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
         <v>188.5623770505815</v>
-      </c>
-      <c r="U21" t="n">
-        <v>188.5623770505815</v>
-      </c>
-      <c r="V21" t="n">
-        <v>188.5623770505815</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>121.4132451535436</v>
       </c>
       <c r="H23" t="n">
-        <v>49.59336558194013</v>
+        <v>49.59336558194015</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>159.2392352254836</v>
       </c>
       <c r="C24" t="n">
-        <v>106.7810505784292</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>52.45818464705465</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2439,28 +2439,28 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.846506480668513</v>
+        <v>6.846506480668527</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
       </c>
       <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
         <v>188.5623770505815</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>188.5623770505815</v>
       </c>
       <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
         <v>188.5623770505815</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2555,25 +2555,25 @@
         <v>160.6202637098006</v>
       </c>
       <c r="C26" t="n">
-        <v>136.7385207131461</v>
+        <v>136.738520713146</v>
       </c>
       <c r="D26" t="n">
-        <v>124.3051829741946</v>
+        <v>124.3051829741945</v>
       </c>
       <c r="E26" t="n">
-        <v>158.0119353936035</v>
+        <v>158.0119353936034</v>
       </c>
       <c r="F26" t="n">
-        <v>189.7322729719808</v>
+        <v>189.7322729719807</v>
       </c>
       <c r="G26" t="n">
-        <v>205.3708602775721</v>
+        <v>205.370860277572</v>
       </c>
       <c r="H26" t="n">
-        <v>133.5509807059687</v>
+        <v>133.5509807059686</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52983825036455</v>
+        <v>27.52983825036446</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.04236090203125</v>
+        <v>14.04236090203116</v>
       </c>
       <c r="T26" t="n">
-        <v>8.99743381717758</v>
+        <v>8.997433817177495</v>
       </c>
       <c r="U26" t="n">
-        <v>36.68353794325355</v>
+        <v>36.68353794325347</v>
       </c>
       <c r="V26" t="n">
-        <v>107.4128069411193</v>
+        <v>107.4128069411192</v>
       </c>
       <c r="W26" t="n">
-        <v>124.4294871577342</v>
+        <v>124.4294871577341</v>
       </c>
       <c r="X26" t="n">
         <v>146.3157376266734</v>
       </c>
       <c r="Y26" t="n">
-        <v>168.8185907504172</v>
+        <v>168.8185907504171</v>
       </c>
     </row>
     <row r="27">
@@ -2631,19 +2631,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>26.73309291925462</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1.503222277870606</v>
+        <v>1.503222277870521</v>
       </c>
       <c r="U27" t="n">
         <v>237.2280576689302</v>
       </c>
       <c r="V27" t="n">
-        <v>27.18194424736956</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>53.2376069089789</v>
+        <v>53.23760690897882</v>
       </c>
       <c r="X27" t="n">
-        <v>3.845937771437917</v>
+        <v>3.845937771437832</v>
       </c>
       <c r="Y27" t="n">
-        <v>96.21686249121785</v>
+        <v>9.917309465992844</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.96844096064998</v>
+        <v>21.96844096064989</v>
       </c>
       <c r="T28" t="n">
-        <v>10.29393777257514</v>
+        <v>10.29393777257505</v>
       </c>
       <c r="U28" t="n">
-        <v>75.1895720791323</v>
+        <v>75.18957207913222</v>
       </c>
       <c r="V28" t="n">
-        <v>31.64203851641722</v>
+        <v>31.64203851641713</v>
       </c>
       <c r="W28" t="n">
-        <v>76.84373042130264</v>
+        <v>76.84373042130255</v>
       </c>
       <c r="X28" t="n">
-        <v>8.452478740209841</v>
+        <v>8.452478740209756</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.674296146135731</v>
+        <v>3.674296146135646</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>133.5509807059686</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52983825036445</v>
+        <v>27.52983825036446</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.04236090203116</v>
+        <v>14.04236090203117</v>
       </c>
       <c r="T29" t="n">
-        <v>8.997433817177505</v>
+        <v>8.997433817177507</v>
       </c>
       <c r="U29" t="n">
         <v>36.68353794325347</v>
@@ -2880,13 +2880,13 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2919,16 +2919,16 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>44.66014819699212</v>
       </c>
       <c r="T30" t="n">
-        <v>79.25302135331572</v>
+        <v>1.503222277870521</v>
       </c>
       <c r="U30" t="n">
         <v>23.7610810008974</v>
       </c>
       <c r="V30" t="n">
-        <v>27.18194424736947</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
         <v>266.7045835770116</v>
@@ -2937,7 +2937,7 @@
         <v>3.845937771437832</v>
       </c>
       <c r="Y30" t="n">
-        <v>223.3842861340256</v>
+        <v>9.917309465992844</v>
       </c>
     </row>
     <row r="31">
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.96844096064989</v>
+        <v>21.9684409606499</v>
       </c>
       <c r="T31" t="n">
         <v>10.29393777257505</v>
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>52.45818464705465</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3150,31 +3150,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.846506480668513</v>
+        <v>6.846506480668531</v>
       </c>
       <c r="R33" t="n">
-        <v>134.7086383504341</v>
+        <v>5.049628943179512</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>191.5874518930719</v>
       </c>
       <c r="T33" t="n">
-        <v>1.503222277870606</v>
+        <v>1.503222277870607</v>
       </c>
       <c r="U33" t="n">
-        <v>23.76108100089748</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V33" t="n">
         <v>27.18194424736956</v>
       </c>
       <c r="W33" t="n">
-        <v>266.7045835770116</v>
+        <v>53.2376069089789</v>
       </c>
       <c r="X33" t="n">
         <v>3.845937771437917</v>
       </c>
       <c r="Y33" t="n">
-        <v>56.10404957512292</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="34">
@@ -3266,22 +3266,22 @@
         <v>102.027563532976</v>
       </c>
       <c r="C35" t="n">
-        <v>78.14582053632148</v>
+        <v>78.14582053632154</v>
       </c>
       <c r="D35" t="n">
-        <v>65.71248279736994</v>
+        <v>65.71248279737</v>
       </c>
       <c r="E35" t="n">
-        <v>99.41923521677882</v>
+        <v>99.41923521677887</v>
       </c>
       <c r="F35" t="n">
-        <v>131.1395727951561</v>
+        <v>131.1395727951562</v>
       </c>
       <c r="G35" t="n">
         <v>146.7781601007475</v>
       </c>
       <c r="H35" t="n">
-        <v>74.95828052914402</v>
+        <v>74.95828052914408</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,13 +3323,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>48.82010676429468</v>
+        <v>48.82010676429474</v>
       </c>
       <c r="W35" t="n">
-        <v>65.83678698090955</v>
+        <v>65.83678698090961</v>
       </c>
       <c r="X35" t="n">
-        <v>87.72303744984879</v>
+        <v>87.72303744984885</v>
       </c>
       <c r="Y35" t="n">
         <v>110.2258905735926</v>
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>119.922705352532</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3390,13 +3390,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>191.5874518930719</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>214.9701989459033</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>200.1842659480014</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.59687190230765</v>
+        <v>16.5968719023077</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>18.25103024447799</v>
+        <v>18.25103024447805</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3503,22 +3503,22 @@
         <v>102.027563532976</v>
       </c>
       <c r="C38" t="n">
-        <v>78.14582053632148</v>
+        <v>78.14582053632154</v>
       </c>
       <c r="D38" t="n">
-        <v>65.71248279736994</v>
+        <v>65.71248279737</v>
       </c>
       <c r="E38" t="n">
-        <v>99.41923521677882</v>
+        <v>99.41923521677887</v>
       </c>
       <c r="F38" t="n">
-        <v>131.1395727951561</v>
+        <v>131.1395727951562</v>
       </c>
       <c r="G38" t="n">
         <v>146.7781601007475</v>
       </c>
       <c r="H38" t="n">
-        <v>74.95828052914402</v>
+        <v>74.95828052914408</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3560,13 +3560,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>48.82010676429468</v>
+        <v>48.82010676429474</v>
       </c>
       <c r="W38" t="n">
-        <v>65.83678698090955</v>
+        <v>65.83678698090961</v>
       </c>
       <c r="X38" t="n">
-        <v>87.72303744984879</v>
+        <v>87.72303744984885</v>
       </c>
       <c r="Y38" t="n">
         <v>110.2258905735926</v>
@@ -3582,10 +3582,10 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>82.73850537825489</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3624,28 +3624,28 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.846506480668513</v>
+        <v>6.846506480668531</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>96.88971184339159</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>191.5874518930719</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>260.4583944746289</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>16.59687190230765</v>
+        <v>16.5968719023077</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>18.25103024447799</v>
+        <v>18.25103024447805</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3816,25 +3816,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>103.6768368312706</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>125.7337882414754</v>
+        <v>69.75590142887749</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3861,16 +3861,16 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.846506480668531</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>191.5874518930719</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.9701989459033</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>25.70776865861436</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -4056,13 +4056,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>127.7383558100101</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.846506480668513</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -4107,19 +4107,19 @@
         <v>191.5874518930719</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9701989459033</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>138.9251445074754</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>25.70776865861436</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>687.8752890379867</v>
+        <v>643.2947222090419</v>
       </c>
       <c r="C11" t="n">
-        <v>514.2633213040236</v>
+        <v>469.6827544750787</v>
       </c>
       <c r="D11" t="n">
-        <v>514.2633213040236</v>
+        <v>308.6297137501575</v>
       </c>
       <c r="E11" t="n">
-        <v>514.2633213040236</v>
+        <v>248.7773877835292</v>
       </c>
       <c r="F11" t="n">
-        <v>439.2444353093691</v>
+        <v>248.7773877835292</v>
       </c>
       <c r="G11" t="n">
         <v>248.7773877835292</v>
       </c>
       <c r="H11" t="n">
-        <v>78.38515743055346</v>
+        <v>78.38515743055355</v>
       </c>
       <c r="I11" t="n">
         <v>15.08499016404652</v>
       </c>
       <c r="J11" t="n">
-        <v>115.6457740567088</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="K11" t="n">
-        <v>115.6457740567088</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="L11" t="n">
-        <v>302.3225273367845</v>
+        <v>201.7617434441222</v>
       </c>
       <c r="M11" t="n">
-        <v>383.2428380599362</v>
+        <v>293.1283452779858</v>
       </c>
       <c r="N11" t="n">
-        <v>458.6300879931744</v>
+        <v>479.8050985580614</v>
       </c>
       <c r="O11" t="n">
-        <v>504.828715160203</v>
+        <v>666.4818518381371</v>
       </c>
       <c r="P11" t="n">
         <v>666.4818518381371</v>
       </c>
       <c r="Q11" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="R11" t="n">
-        <v>737.5517418112277</v>
+        <v>737.5517418112274</v>
       </c>
       <c r="S11" t="n">
-        <v>687.8752890379867</v>
+        <v>687.8752890379864</v>
       </c>
       <c r="T11" t="n">
-        <v>687.8752890379867</v>
+        <v>643.2947222090419</v>
       </c>
       <c r="U11" t="n">
-        <v>687.8752890379867</v>
+        <v>643.2947222090419</v>
       </c>
       <c r="V11" t="n">
-        <v>687.8752890379867</v>
+        <v>643.2947222090419</v>
       </c>
       <c r="W11" t="n">
-        <v>687.8752890379867</v>
+        <v>643.2947222090419</v>
       </c>
       <c r="X11" t="n">
-        <v>687.8752890379867</v>
+        <v>643.2947222090419</v>
       </c>
       <c r="Y11" t="n">
-        <v>687.8752890379867</v>
+        <v>643.2947222090419</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>279.7323629885256</v>
+        <v>24.36630551739061</v>
       </c>
       <c r="C12" t="n">
-        <v>142.0888166705873</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="D12" t="n">
-        <v>142.0888166705873</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="E12" t="n">
-        <v>142.0888166705873</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="F12" t="n">
-        <v>142.0888166705873</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="G12" t="n">
-        <v>142.0888166705873</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="H12" t="n">
         <v>15.08499016404652</v>
@@ -5121,49 +5121,49 @@
         <v>15.08499016404652</v>
       </c>
       <c r="K12" t="n">
-        <v>53.07705719635118</v>
+        <v>53.07705719635112</v>
       </c>
       <c r="L12" t="n">
-        <v>170.4486221681695</v>
+        <v>170.4486221681694</v>
       </c>
       <c r="M12" t="n">
-        <v>352.1703666486675</v>
+        <v>352.1703666486674</v>
       </c>
       <c r="N12" t="n">
         <v>538.8471199287433</v>
       </c>
       <c r="O12" t="n">
-        <v>670.5904072110302</v>
+        <v>670.5904072110301</v>
       </c>
       <c r="P12" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="Q12" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="R12" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="S12" t="n">
-        <v>740.8577884361479</v>
+        <v>740.8577884361476</v>
       </c>
       <c r="T12" t="n">
-        <v>703.8471322529681</v>
+        <v>703.8471322529679</v>
       </c>
       <c r="U12" t="n">
-        <v>644.3537904909733</v>
+        <v>513.380084727128</v>
       </c>
       <c r="V12" t="n">
-        <v>453.8867429651334</v>
+        <v>322.913037201288</v>
       </c>
       <c r="W12" t="n">
-        <v>364.619132609117</v>
+        <v>233.6454268452715</v>
       </c>
       <c r="X12" t="n">
-        <v>325.2420971395056</v>
+        <v>69.87603966837075</v>
       </c>
       <c r="Y12" t="n">
-        <v>279.7323629885256</v>
+        <v>24.36630551739061</v>
       </c>
     </row>
     <row r="13">
@@ -5173,73 +5173,73 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.79059153703792</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="C13" t="n">
-        <v>15.79059153703792</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="D13" t="n">
-        <v>15.79059153703792</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="E13" t="n">
-        <v>15.79059153703792</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="F13" t="n">
-        <v>15.79059153703792</v>
+        <v>54.09372959909406</v>
       </c>
       <c r="G13" t="n">
-        <v>15.79059153703792</v>
+        <v>54.09372959909406</v>
       </c>
       <c r="H13" t="n">
-        <v>28.17211737764577</v>
+        <v>54.09372959909406</v>
       </c>
       <c r="I13" t="n">
-        <v>28.17211737764577</v>
+        <v>54.09372959909406</v>
       </c>
       <c r="J13" t="n">
-        <v>74.830100163174</v>
+        <v>111.6134206657057</v>
       </c>
       <c r="K13" t="n">
-        <v>74.830100163174</v>
+        <v>221.8174296267035</v>
       </c>
       <c r="L13" t="n">
-        <v>219.5683396184321</v>
+        <v>366.5556690819615</v>
       </c>
       <c r="M13" t="n">
-        <v>219.5683396184321</v>
+        <v>518.1607158341619</v>
       </c>
       <c r="N13" t="n">
-        <v>379.7825711421967</v>
+        <v>518.1607158341619</v>
       </c>
       <c r="O13" t="n">
-        <v>519.2459201612845</v>
+        <v>518.1607158341619</v>
       </c>
       <c r="P13" t="n">
-        <v>519.2459201612845</v>
+        <v>519.2459201612853</v>
       </c>
       <c r="Q13" t="n">
-        <v>519.2459201612845</v>
+        <v>519.2459201612853</v>
       </c>
       <c r="R13" t="n">
-        <v>493.8989154577476</v>
+        <v>493.8989154577483</v>
       </c>
       <c r="S13" t="n">
-        <v>436.2163212111544</v>
+        <v>436.216321211155</v>
       </c>
       <c r="T13" t="n">
-        <v>390.3261544272631</v>
+        <v>390.3261544272635</v>
       </c>
       <c r="U13" t="n">
-        <v>278.8848418791725</v>
+        <v>278.8848418791729</v>
       </c>
       <c r="V13" t="n">
-        <v>211.4309369701882</v>
+        <v>211.4309369701884</v>
       </c>
       <c r="W13" t="n">
-        <v>98.31875740980433</v>
+        <v>98.3187574098045</v>
       </c>
       <c r="X13" t="n">
-        <v>54.28865025456476</v>
+        <v>54.28865025456485</v>
       </c>
       <c r="Y13" t="n">
         <v>15.08499016404652</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>426.7583590056807</v>
+        <v>563.7824606764862</v>
       </c>
       <c r="C14" t="n">
-        <v>426.7583590056807</v>
+        <v>563.7824606764862</v>
       </c>
       <c r="D14" t="n">
-        <v>268.8522049563935</v>
+        <v>563.7824606764862</v>
       </c>
       <c r="E14" t="n">
-        <v>268.8522049563935</v>
+        <v>563.7824606764862</v>
       </c>
       <c r="F14" t="n">
-        <v>268.8522049563935</v>
+        <v>373.3154131506462</v>
       </c>
       <c r="G14" t="n">
-        <v>78.38515743055356</v>
+        <v>248.7773877835292</v>
       </c>
       <c r="H14" t="n">
-        <v>78.38515743055356</v>
+        <v>78.38515743055359</v>
       </c>
       <c r="I14" t="n">
         <v>15.08499016404652</v>
       </c>
       <c r="J14" t="n">
-        <v>15.08499016404652</v>
+        <v>115.6457740567087</v>
       </c>
       <c r="K14" t="n">
-        <v>185.0137379722658</v>
+        <v>115.6457740567087</v>
       </c>
       <c r="L14" t="n">
-        <v>231.7870762025598</v>
+        <v>162.4191122870026</v>
       </c>
       <c r="M14" t="n">
-        <v>312.7073869257115</v>
+        <v>349.0958655670782</v>
       </c>
       <c r="N14" t="n">
-        <v>499.3841402057872</v>
+        <v>424.4831155003163</v>
       </c>
       <c r="O14" t="n">
-        <v>592.5963715243922</v>
+        <v>592.5963715243921</v>
       </c>
       <c r="P14" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="Q14" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="R14" t="n">
-        <v>737.5517418112275</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="S14" t="n">
-        <v>687.8752890379865</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="T14" t="n">
-        <v>643.294722209042</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="U14" t="n">
-        <v>570.7483936365865</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="V14" t="n">
-        <v>426.7583590056807</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="W14" t="n">
-        <v>426.7583590056807</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="X14" t="n">
-        <v>426.7583590056807</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="Y14" t="n">
-        <v>426.7583590056807</v>
+        <v>563.7824606764862</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>151.3701320239314</v>
+        <v>24.36630551739061</v>
       </c>
       <c r="C15" t="n">
-        <v>142.0888166705873</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="D15" t="n">
-        <v>142.0888166705873</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="E15" t="n">
-        <v>142.0888166705873</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="F15" t="n">
-        <v>142.0888166705873</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="G15" t="n">
-        <v>142.0888166705873</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="H15" t="n">
         <v>15.08499016404652</v>
@@ -5358,49 +5358,49 @@
         <v>15.08499016404652</v>
       </c>
       <c r="K15" t="n">
-        <v>53.07705719635115</v>
+        <v>53.07705719635116</v>
       </c>
       <c r="L15" t="n">
-        <v>170.4486221681694</v>
+        <v>170.4486221681695</v>
       </c>
       <c r="M15" t="n">
-        <v>352.1703666486675</v>
+        <v>352.1703666486676</v>
       </c>
       <c r="N15" t="n">
         <v>538.8471199287433</v>
       </c>
       <c r="O15" t="n">
-        <v>670.5904072110302</v>
+        <v>670.5904072110301</v>
       </c>
       <c r="P15" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="Q15" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="R15" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="S15" t="n">
-        <v>740.8577884361478</v>
+        <v>563.7824606764862</v>
       </c>
       <c r="T15" t="n">
-        <v>550.3907409103078</v>
+        <v>526.7718044933064</v>
       </c>
       <c r="U15" t="n">
-        <v>388.4732711832132</v>
+        <v>467.2784627313115</v>
       </c>
       <c r="V15" t="n">
-        <v>325.5245120005395</v>
+        <v>349.6106975502272</v>
       </c>
       <c r="W15" t="n">
-        <v>236.256901644523</v>
+        <v>260.3430871942107</v>
       </c>
       <c r="X15" t="n">
-        <v>196.8798661749116</v>
+        <v>69.87603966837075</v>
       </c>
       <c r="Y15" t="n">
-        <v>151.3701320239314</v>
+        <v>24.36630551739061</v>
       </c>
     </row>
     <row r="16">
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.79059153703784</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="C16" t="n">
-        <v>15.79059153703784</v>
+        <v>15.22403418504372</v>
       </c>
       <c r="D16" t="n">
-        <v>15.79059153703784</v>
+        <v>15.22403418504372</v>
       </c>
       <c r="E16" t="n">
-        <v>15.79059153703784</v>
+        <v>15.22403418504372</v>
       </c>
       <c r="F16" t="n">
-        <v>54.79933097208537</v>
+        <v>15.22403418504372</v>
       </c>
       <c r="G16" t="n">
-        <v>64.3320658439354</v>
+        <v>24.75676905689375</v>
       </c>
       <c r="H16" t="n">
-        <v>64.3320658439354</v>
+        <v>24.75676905689375</v>
       </c>
       <c r="I16" t="n">
-        <v>77.67846769284581</v>
+        <v>38.10317090580416</v>
       </c>
       <c r="J16" t="n">
-        <v>135.1981587594575</v>
+        <v>95.62286197241582</v>
       </c>
       <c r="K16" t="n">
-        <v>245.4021677204553</v>
+        <v>95.62286197241582</v>
       </c>
       <c r="L16" t="n">
-        <v>245.4021677204553</v>
+        <v>240.3611014276738</v>
       </c>
       <c r="M16" t="n">
-        <v>379.7825711421976</v>
+        <v>240.3611014276738</v>
       </c>
       <c r="N16" t="n">
-        <v>379.7825711421976</v>
+        <v>400.5753329514383</v>
       </c>
       <c r="O16" t="n">
-        <v>519.2459201612853</v>
+        <v>400.5753329514383</v>
       </c>
       <c r="P16" t="n">
         <v>519.2459201612853</v>
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.5335379340404</v>
+        <v>463.533537934041</v>
       </c>
       <c r="C17" t="n">
-        <v>410.2194918844266</v>
+        <v>410.2194918844273</v>
       </c>
       <c r="D17" t="n">
-        <v>369.464372843855</v>
+        <v>369.4643728438554</v>
       </c>
       <c r="E17" t="n">
-        <v>294.6620291372137</v>
+        <v>294.6620291372141</v>
       </c>
       <c r="F17" t="n">
-        <v>187.8189404019085</v>
+        <v>187.8189404019087</v>
       </c>
       <c r="G17" t="n">
-        <v>65.17929883267293</v>
+        <v>65.17929883267294</v>
       </c>
       <c r="H17" t="n">
         <v>15.08499016404652</v>
@@ -5516,49 +5516,49 @@
         <v>15.08499016404652</v>
       </c>
       <c r="K17" t="n">
-        <v>15.08499016404652</v>
+        <v>201.7617434441222</v>
       </c>
       <c r="L17" t="n">
-        <v>61.85832839434048</v>
+        <v>248.5350816744161</v>
       </c>
       <c r="M17" t="n">
-        <v>248.5350816744162</v>
+        <v>435.2118349544918</v>
       </c>
       <c r="N17" t="n">
-        <v>435.2118349544919</v>
+        <v>621.8885882345676</v>
       </c>
       <c r="O17" t="n">
-        <v>621.8885882345676</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="P17" t="n">
-        <v>707.4481717933589</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="Q17" t="n">
-        <v>707.4481717933589</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="R17" t="n">
-        <v>707.4481717933589</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="S17" t="n">
-        <v>707.4481717933589</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="T17" t="n">
-        <v>707.4481717933589</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="U17" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="V17" t="n">
-        <v>730.5573952557693</v>
+        <v>730.5573952557697</v>
       </c>
       <c r="W17" t="n">
-        <v>689.6767164338441</v>
+        <v>689.6767164338448</v>
       </c>
       <c r="X17" t="n">
-        <v>626.6887139059201</v>
+        <v>626.6887139059206</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.9705567075475</v>
+        <v>540.9705567075481</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>237.2460814835411</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="C18" t="n">
-        <v>237.2460814835411</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="D18" t="n">
-        <v>76.46596524457289</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="E18" t="n">
-        <v>76.46596524457289</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="F18" t="n">
-        <v>76.46596524457289</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="G18" t="n">
-        <v>76.46596524457289</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="H18" t="n">
         <v>15.08499016404652</v>
@@ -5595,10 +5595,10 @@
         <v>15.08499016404652</v>
       </c>
       <c r="K18" t="n">
-        <v>53.07705719635118</v>
+        <v>53.07705719635115</v>
       </c>
       <c r="L18" t="n">
-        <v>170.4486221681695</v>
+        <v>170.4486221681694</v>
       </c>
       <c r="M18" t="n">
         <v>352.1703666486676</v>
@@ -5607,37 +5607,37 @@
         <v>538.8471199287433</v>
       </c>
       <c r="O18" t="n">
-        <v>670.5904072110302</v>
+        <v>670.5904072110301</v>
       </c>
       <c r="P18" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="Q18" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="R18" t="n">
-        <v>618.180176535221</v>
+        <v>618.1801765352209</v>
       </c>
       <c r="S18" t="n">
-        <v>618.180176535221</v>
+        <v>427.713129009381</v>
       </c>
       <c r="T18" t="n">
-        <v>427.7131290093811</v>
+        <v>427.713129009381</v>
       </c>
       <c r="U18" t="n">
-        <v>427.7131290093811</v>
+        <v>427.713129009381</v>
       </c>
       <c r="V18" t="n">
-        <v>427.7131290093811</v>
+        <v>427.713129009381</v>
       </c>
       <c r="W18" t="n">
-        <v>427.7131290093811</v>
+        <v>384.0878906168215</v>
       </c>
       <c r="X18" t="n">
-        <v>427.7131290093811</v>
+        <v>384.0878906168215</v>
       </c>
       <c r="Y18" t="n">
-        <v>237.2460814835411</v>
+        <v>193.6208430909816</v>
       </c>
     </row>
     <row r="19">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.5335379340414</v>
+        <v>463.5335379340405</v>
       </c>
       <c r="C20" t="n">
-        <v>410.2194918844276</v>
+        <v>410.2194918844269</v>
       </c>
       <c r="D20" t="n">
-        <v>369.4643728438559</v>
+        <v>369.4643728438551</v>
       </c>
       <c r="E20" t="n">
-        <v>294.6620291372144</v>
+        <v>294.6620291372137</v>
       </c>
       <c r="F20" t="n">
-        <v>187.8189404019088</v>
+        <v>187.8189404019083</v>
       </c>
       <c r="G20" t="n">
-        <v>65.17929883267293</v>
+        <v>65.17929883267294</v>
       </c>
       <c r="H20" t="n">
         <v>15.08499016404652</v>
@@ -5753,49 +5753,49 @@
         <v>15.08499016404652</v>
       </c>
       <c r="K20" t="n">
-        <v>15.08499016404652</v>
+        <v>201.7617434441222</v>
       </c>
       <c r="L20" t="n">
-        <v>201.7617434441223</v>
+        <v>388.4384967241979</v>
       </c>
       <c r="M20" t="n">
-        <v>282.682054167274</v>
+        <v>469.3588074473496</v>
       </c>
       <c r="N20" t="n">
-        <v>358.0693041005121</v>
+        <v>544.7460573805877</v>
       </c>
       <c r="O20" t="n">
-        <v>544.7460573805879</v>
+        <v>731.4228106606633</v>
       </c>
       <c r="P20" t="n">
-        <v>544.7460573805879</v>
+        <v>731.4228106606633</v>
       </c>
       <c r="Q20" t="n">
-        <v>731.4228106606636</v>
+        <v>731.4228106606633</v>
       </c>
       <c r="R20" t="n">
-        <v>731.4228106606636</v>
+        <v>731.4228106606633</v>
       </c>
       <c r="S20" t="n">
-        <v>754.2495082023262</v>
+        <v>731.4228106606633</v>
       </c>
       <c r="T20" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="U20" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="V20" t="n">
-        <v>730.55739525577</v>
+        <v>730.5573952557697</v>
       </c>
       <c r="W20" t="n">
-        <v>689.6767164338451</v>
+        <v>689.6767164338444</v>
       </c>
       <c r="X20" t="n">
-        <v>626.6887139059211</v>
+        <v>626.6887139059202</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.9705567075486</v>
+        <v>540.9705567075476</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>68.07305546410173</v>
+        <v>366.3997500388598</v>
       </c>
       <c r="C21" t="n">
-        <v>68.07305546410173</v>
+        <v>176.9874757718235</v>
       </c>
       <c r="D21" t="n">
-        <v>68.07305546410173</v>
+        <v>123.5266269105832</v>
       </c>
       <c r="E21" t="n">
-        <v>68.07305546410173</v>
+        <v>123.5266269105832</v>
       </c>
       <c r="F21" t="n">
-        <v>68.07305546410173</v>
+        <v>123.5266269105832</v>
       </c>
       <c r="G21" t="n">
-        <v>68.07305546410173</v>
+        <v>123.5266269105832</v>
       </c>
       <c r="H21" t="n">
-        <v>68.07305546410173</v>
+        <v>123.5266269105832</v>
       </c>
       <c r="I21" t="n">
-        <v>68.07305546410173</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="J21" t="n">
         <v>15.08499016404652</v>
       </c>
       <c r="K21" t="n">
-        <v>53.07705719635115</v>
+        <v>53.07705719635116</v>
       </c>
       <c r="L21" t="n">
-        <v>170.4486221681694</v>
+        <v>170.4486221681695</v>
       </c>
       <c r="M21" t="n">
-        <v>352.1703666486675</v>
+        <v>352.1703666486676</v>
       </c>
       <c r="N21" t="n">
         <v>538.8471199287433</v>
       </c>
       <c r="O21" t="n">
-        <v>670.5904072110302</v>
+        <v>670.5904072110301</v>
       </c>
       <c r="P21" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="Q21" t="n">
-        <v>754.2495082023262</v>
+        <v>747.3338450905396</v>
       </c>
       <c r="R21" t="n">
-        <v>639.4741980416215</v>
+        <v>747.3338450905396</v>
       </c>
       <c r="S21" t="n">
-        <v>639.4741980416215</v>
+        <v>556.8667975646997</v>
       </c>
       <c r="T21" t="n">
-        <v>449.0071505157816</v>
+        <v>556.8667975646997</v>
       </c>
       <c r="U21" t="n">
-        <v>258.5401029899417</v>
+        <v>556.8667975646997</v>
       </c>
       <c r="V21" t="n">
-        <v>68.07305546410173</v>
+        <v>556.8667975646997</v>
       </c>
       <c r="W21" t="n">
-        <v>68.07305546410173</v>
+        <v>366.3997500388598</v>
       </c>
       <c r="X21" t="n">
-        <v>68.07305546410173</v>
+        <v>366.3997500388598</v>
       </c>
       <c r="Y21" t="n">
-        <v>68.07305546410173</v>
+        <v>366.3997500388598</v>
       </c>
     </row>
     <row r="22">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.5335379340405</v>
+        <v>463.5335379340411</v>
       </c>
       <c r="C23" t="n">
-        <v>410.2194918844267</v>
+        <v>410.2194918844273</v>
       </c>
       <c r="D23" t="n">
-        <v>369.4643728438551</v>
+        <v>369.4643728438555</v>
       </c>
       <c r="E23" t="n">
-        <v>294.6620291372138</v>
+        <v>294.6620291372142</v>
       </c>
       <c r="F23" t="n">
-        <v>187.8189404019087</v>
+        <v>187.8189404019089</v>
       </c>
       <c r="G23" t="n">
-        <v>65.17929883267293</v>
+        <v>65.17929883267294</v>
       </c>
       <c r="H23" t="n">
         <v>15.08499016404652</v>
@@ -5987,52 +5987,52 @@
         <v>15.08499016404652</v>
       </c>
       <c r="J23" t="n">
-        <v>15.08499016404652</v>
+        <v>201.7617434441222</v>
       </c>
       <c r="K23" t="n">
-        <v>15.08499016404652</v>
+        <v>330.1871742234638</v>
       </c>
       <c r="L23" t="n">
-        <v>61.85832839434048</v>
+        <v>516.8639275035395</v>
       </c>
       <c r="M23" t="n">
-        <v>248.5350816744162</v>
+        <v>597.7842382266912</v>
       </c>
       <c r="N23" t="n">
-        <v>323.9223316076543</v>
+        <v>673.1714881599293</v>
       </c>
       <c r="O23" t="n">
-        <v>510.59908488773</v>
+        <v>707.4481717933588</v>
       </c>
       <c r="P23" t="n">
-        <v>510.59908488773</v>
+        <v>707.4481717933588</v>
       </c>
       <c r="Q23" t="n">
-        <v>697.2758381678058</v>
+        <v>707.4481717933588</v>
       </c>
       <c r="R23" t="n">
-        <v>697.2758381678058</v>
+        <v>707.4481717933588</v>
       </c>
       <c r="S23" t="n">
-        <v>697.2758381678058</v>
+        <v>707.4481717933588</v>
       </c>
       <c r="T23" t="n">
-        <v>754.2495082023262</v>
+        <v>707.4481717933588</v>
       </c>
       <c r="U23" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="V23" t="n">
-        <v>730.5573952557694</v>
+        <v>730.5573952557697</v>
       </c>
       <c r="W23" t="n">
-        <v>689.6767164338443</v>
+        <v>689.6767164338448</v>
       </c>
       <c r="X23" t="n">
-        <v>626.6887139059202</v>
+        <v>626.6887139059206</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.9705567075478</v>
+        <v>540.9705567075482</v>
       </c>
     </row>
     <row r="24">
@@ -6042,34 +6042,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>175.9327025130201</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="C24" t="n">
-        <v>68.07305546410173</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="D24" t="n">
-        <v>68.07305546410173</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="E24" t="n">
-        <v>68.07305546410173</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="F24" t="n">
-        <v>68.07305546410173</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="G24" t="n">
-        <v>68.07305546410173</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="H24" t="n">
-        <v>68.07305546410173</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="I24" t="n">
-        <v>68.07305546410173</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="J24" t="n">
         <v>15.08499016404652</v>
       </c>
       <c r="K24" t="n">
-        <v>53.07705719635118</v>
+        <v>53.07705719635116</v>
       </c>
       <c r="L24" t="n">
         <v>170.4486221681694</v>
@@ -6078,40 +6078,40 @@
         <v>352.1703666486675</v>
       </c>
       <c r="N24" t="n">
-        <v>538.8471199287433</v>
+        <v>538.8471199287432</v>
       </c>
       <c r="O24" t="n">
-        <v>670.5904072110302</v>
+        <v>670.59040721103</v>
       </c>
       <c r="P24" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="Q24" t="n">
-        <v>747.3338450905399</v>
+        <v>747.3338450905396</v>
       </c>
       <c r="R24" t="n">
-        <v>747.3338450905399</v>
+        <v>747.3338450905396</v>
       </c>
       <c r="S24" t="n">
-        <v>556.8667975646999</v>
+        <v>747.3338450905396</v>
       </c>
       <c r="T24" t="n">
-        <v>556.8667975646999</v>
+        <v>747.3338450905396</v>
       </c>
       <c r="U24" t="n">
-        <v>556.8667975646999</v>
+        <v>556.8667975646997</v>
       </c>
       <c r="V24" t="n">
-        <v>366.39975003886</v>
+        <v>366.3997500388598</v>
       </c>
       <c r="W24" t="n">
-        <v>175.9327025130201</v>
+        <v>366.3997500388598</v>
       </c>
       <c r="X24" t="n">
-        <v>175.9327025130201</v>
+        <v>175.9327025130199</v>
       </c>
       <c r="Y24" t="n">
-        <v>175.9327025130201</v>
+        <v>175.9327025130199</v>
       </c>
     </row>
     <row r="25">
@@ -6200,40 +6200,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1021.012157971339</v>
+        <v>1021.01215797134</v>
       </c>
       <c r="C26" t="n">
-        <v>882.8924400792721</v>
+        <v>882.8924400792732</v>
       </c>
       <c r="D26" t="n">
-        <v>757.3316491962472</v>
+        <v>757.3316491962485</v>
       </c>
       <c r="E26" t="n">
-        <v>597.7236336471528</v>
+        <v>597.7236336471542</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0748730693945</v>
+        <v>406.0748730693959</v>
       </c>
       <c r="G26" t="n">
         <v>198.6295596577069</v>
       </c>
       <c r="H26" t="n">
-        <v>63.72957914662749</v>
+        <v>63.72957914662741</v>
       </c>
       <c r="I26" t="n">
         <v>35.92166172201684</v>
       </c>
       <c r="J26" t="n">
-        <v>171.2683996847224</v>
+        <v>171.2683996847217</v>
       </c>
       <c r="K26" t="n">
-        <v>375.9831015629843</v>
+        <v>375.9831015629836</v>
       </c>
       <c r="L26" t="n">
-        <v>634.0887466946306</v>
+        <v>634.0887466946299</v>
       </c>
       <c r="M26" t="n">
-        <v>926.3413643191346</v>
+        <v>926.3413643191341</v>
       </c>
       <c r="N26" t="n">
         <v>1213.060921153725</v>
@@ -6242,7 +6242,7 @@
         <v>1458.669911688507</v>
       </c>
       <c r="P26" t="n">
-        <v>1655.109002436484</v>
+        <v>1655.109002436483</v>
       </c>
       <c r="Q26" t="n">
         <v>1777.662612870715</v>
@@ -6257,19 +6257,19 @@
         <v>1772.810566182449</v>
       </c>
       <c r="U26" t="n">
-        <v>1735.756487451889</v>
+        <v>1735.75648745189</v>
       </c>
       <c r="V26" t="n">
-        <v>1627.25870266288</v>
+        <v>1627.258702662881</v>
       </c>
       <c r="W26" t="n">
-        <v>1501.572351998502</v>
+        <v>1501.572351998503</v>
       </c>
       <c r="X26" t="n">
         <v>1353.778677628125</v>
       </c>
       <c r="Y26" t="n">
-        <v>1183.254848587299</v>
+        <v>1183.2548485873</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>369.9125818833583</v>
+        <v>62.92478588288009</v>
       </c>
       <c r="C27" t="n">
-        <v>369.9125818833583</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="D27" t="n">
-        <v>369.9125818833583</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="E27" t="n">
-        <v>196.3493780047727</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="F27" t="n">
         <v>35.92166172201684</v>
@@ -6306,49 +6306,49 @@
         <v>35.92166172201684</v>
       </c>
       <c r="K27" t="n">
-        <v>73.91372875432148</v>
+        <v>73.91372875432147</v>
       </c>
       <c r="L27" t="n">
-        <v>191.2852937261398</v>
+        <v>191.2852937261397</v>
       </c>
       <c r="M27" t="n">
         <v>373.0070382066378</v>
       </c>
       <c r="N27" t="n">
-        <v>577.9583061004876</v>
+        <v>577.9583061004874</v>
       </c>
       <c r="O27" t="n">
-        <v>709.7015933827745</v>
+        <v>709.7015933827743</v>
       </c>
       <c r="P27" t="n">
-        <v>793.3606943740705</v>
+        <v>793.3606943740702</v>
       </c>
       <c r="Q27" t="n">
-        <v>793.3606943740705</v>
+        <v>793.3606943740702</v>
       </c>
       <c r="R27" t="n">
-        <v>793.3606943740705</v>
+        <v>793.3606943740702</v>
       </c>
       <c r="S27" t="n">
-        <v>793.3606943740705</v>
+        <v>793.3606943740702</v>
       </c>
       <c r="T27" t="n">
-        <v>791.842288032787</v>
+        <v>791.8422880327869</v>
       </c>
       <c r="U27" t="n">
-        <v>552.2179873570999</v>
+        <v>552.2179873570998</v>
       </c>
       <c r="V27" t="n">
-        <v>524.7614780163226</v>
+        <v>309.1382692607339</v>
       </c>
       <c r="W27" t="n">
-        <v>470.9861175022025</v>
+        <v>255.3629087466138</v>
       </c>
       <c r="X27" t="n">
-        <v>467.1013318744874</v>
+        <v>251.4781231188988</v>
       </c>
       <c r="Y27" t="n">
-        <v>369.9125818833583</v>
+        <v>241.4606388098152</v>
       </c>
     </row>
     <row r="28">
@@ -6379,52 +6379,52 @@
         <v>35.92166172201684</v>
       </c>
       <c r="I28" t="n">
-        <v>79.89883730020082</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="J28" t="n">
-        <v>79.89883730020082</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="K28" t="n">
-        <v>79.89883730020082</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="L28" t="n">
-        <v>79.89883730020082</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="M28" t="n">
-        <v>266.2898381224439</v>
+        <v>222.31266254426</v>
       </c>
       <c r="N28" t="n">
-        <v>266.2898381224439</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="O28" t="n">
-        <v>266.2898381224439</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="P28" t="n">
-        <v>266.2898381224439</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="Q28" t="n">
-        <v>266.2898381224439</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="R28" t="n">
-        <v>266.2898381224439</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="S28" t="n">
-        <v>244.099493717747</v>
+        <v>244.0994937177465</v>
       </c>
       <c r="T28" t="n">
-        <v>233.7015767757519</v>
+        <v>233.7015767757515</v>
       </c>
       <c r="U28" t="n">
-        <v>157.7525140695577</v>
+        <v>157.7525140695573</v>
       </c>
       <c r="V28" t="n">
-        <v>125.7908590024696</v>
+        <v>125.7908590024693</v>
       </c>
       <c r="W28" t="n">
-        <v>48.17092928398206</v>
+        <v>48.17092928398189</v>
       </c>
       <c r="X28" t="n">
-        <v>39.63307197063879</v>
+        <v>39.6330719706387</v>
       </c>
       <c r="Y28" t="n">
         <v>35.92166172201684</v>
@@ -6437,46 +6437,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1021.01215797134</v>
+        <v>1021.012157971339</v>
       </c>
       <c r="C29" t="n">
-        <v>882.8924400792731</v>
+        <v>882.8924400792727</v>
       </c>
       <c r="D29" t="n">
-        <v>757.3316491962483</v>
+        <v>757.3316491962479</v>
       </c>
       <c r="E29" t="n">
-        <v>597.723633647154</v>
+        <v>597.7236336471535</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0748730693957</v>
+        <v>406.0748730693953</v>
       </c>
       <c r="G29" t="n">
-        <v>198.6295596577067</v>
+        <v>198.6295596577063</v>
       </c>
       <c r="H29" t="n">
-        <v>63.72957914662739</v>
+        <v>63.72957914662692</v>
       </c>
       <c r="I29" t="n">
         <v>35.92166172201684</v>
       </c>
       <c r="J29" t="n">
-        <v>171.2683996847218</v>
+        <v>171.2683996847217</v>
       </c>
       <c r="K29" t="n">
-        <v>375.9831015629837</v>
+        <v>375.9831015629836</v>
       </c>
       <c r="L29" t="n">
-        <v>634.0887466946301</v>
+        <v>634.0887466946299</v>
       </c>
       <c r="M29" t="n">
         <v>926.3413643191341</v>
       </c>
       <c r="N29" t="n">
-        <v>1213.060921153724</v>
+        <v>1213.060921153725</v>
       </c>
       <c r="O29" t="n">
-        <v>1458.669911688506</v>
+        <v>1458.669911688507</v>
       </c>
       <c r="P29" t="n">
         <v>1655.109002436483</v>
@@ -6491,22 +6491,22 @@
         <v>1781.898883169497</v>
       </c>
       <c r="T29" t="n">
-        <v>1772.810566182448</v>
+        <v>1772.810566182449</v>
       </c>
       <c r="U29" t="n">
-        <v>1735.756487451889</v>
+        <v>1735.75648745189</v>
       </c>
       <c r="V29" t="n">
-        <v>1627.25870266288</v>
+        <v>1627.258702662881</v>
       </c>
       <c r="W29" t="n">
-        <v>1501.572351998502</v>
+        <v>1501.572351998503</v>
       </c>
       <c r="X29" t="n">
-        <v>1353.778677628125</v>
+        <v>1353.778677628126</v>
       </c>
       <c r="Y29" t="n">
-        <v>1183.2548485873</v>
+        <v>1183.254848587299</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>162.9254882285576</v>
+        <v>196.3493780047727</v>
       </c>
       <c r="C30" t="n">
-        <v>162.9254882285576</v>
+        <v>196.3493780047727</v>
       </c>
       <c r="D30" t="n">
-        <v>162.9254882285576</v>
+        <v>196.3493780047727</v>
       </c>
       <c r="E30" t="n">
-        <v>162.9254882285576</v>
+        <v>196.3493780047727</v>
       </c>
       <c r="F30" t="n">
-        <v>162.9254882285576</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="G30" t="n">
-        <v>162.9254882285576</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="H30" t="n">
         <v>35.92166172201684</v>
@@ -6543,49 +6543,49 @@
         <v>35.92166172201684</v>
       </c>
       <c r="K30" t="n">
-        <v>73.91372875432148</v>
+        <v>73.91372875432145</v>
       </c>
       <c r="L30" t="n">
-        <v>191.2852937261398</v>
+        <v>191.2852937261397</v>
       </c>
       <c r="M30" t="n">
-        <v>373.0070382066378</v>
+        <v>373.0070382066377</v>
       </c>
       <c r="N30" t="n">
-        <v>577.9583061004876</v>
+        <v>577.9583061004874</v>
       </c>
       <c r="O30" t="n">
-        <v>709.7015933827745</v>
+        <v>709.7015933827743</v>
       </c>
       <c r="P30" t="n">
-        <v>793.3606943740705</v>
+        <v>793.3606943740702</v>
       </c>
       <c r="Q30" t="n">
-        <v>793.3606943740705</v>
+        <v>793.3606943740702</v>
       </c>
       <c r="R30" t="n">
-        <v>793.3606943740705</v>
+        <v>793.3606943740702</v>
       </c>
       <c r="S30" t="n">
-        <v>793.3606943740705</v>
+        <v>748.2494335690277</v>
       </c>
       <c r="T30" t="n">
-        <v>713.3071374515293</v>
+        <v>746.7310272277443</v>
       </c>
       <c r="U30" t="n">
-        <v>689.306045531431</v>
+        <v>722.729935307646</v>
       </c>
       <c r="V30" t="n">
-        <v>661.8495361906537</v>
+        <v>479.6502172112801</v>
       </c>
       <c r="W30" t="n">
-        <v>392.4509669209449</v>
+        <v>210.2516479415714</v>
       </c>
       <c r="X30" t="n">
-        <v>388.56618129323</v>
+        <v>206.3668623138564</v>
       </c>
       <c r="Y30" t="n">
-        <v>162.9254882285576</v>
+        <v>196.3493780047727</v>
       </c>
     </row>
     <row r="31">
@@ -6598,49 +6598,49 @@
         <v>35.92166172201684</v>
       </c>
       <c r="C31" t="n">
-        <v>82.46135946111664</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="D31" t="n">
-        <v>82.46135946111664</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="E31" t="n">
-        <v>82.46135946111664</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="F31" t="n">
-        <v>156.2560529662069</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="G31" t="n">
-        <v>156.2560529662069</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="H31" t="n">
-        <v>156.2560529662069</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="I31" t="n">
-        <v>204.3884088851601</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="J31" t="n">
-        <v>204.3884088851601</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="K31" t="n">
-        <v>204.3884088851601</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="L31" t="n">
-        <v>204.3884088851601</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="M31" t="n">
-        <v>204.3884088851601</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="N31" t="n">
-        <v>256.3464833623372</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="O31" t="n">
-        <v>256.3464833623372</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="P31" t="n">
-        <v>256.3464833623372</v>
+        <v>180.8898523171609</v>
       </c>
       <c r="Q31" t="n">
-        <v>256.3464833623372</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="R31" t="n">
         <v>266.2898381224434</v>
@@ -6689,7 +6689,7 @@
         <v>406.0748730693952</v>
       </c>
       <c r="G32" t="n">
-        <v>198.6295596577068</v>
+        <v>198.629559657707</v>
       </c>
       <c r="H32" t="n">
         <v>63.72957914662749</v>
@@ -6698,16 +6698,16 @@
         <v>35.92166172201684</v>
       </c>
       <c r="J32" t="n">
-        <v>171.2683996847221</v>
+        <v>171.2683996847216</v>
       </c>
       <c r="K32" t="n">
-        <v>375.983101562984</v>
+        <v>375.9831015629835</v>
       </c>
       <c r="L32" t="n">
-        <v>634.0887466946303</v>
+        <v>634.0887466946298</v>
       </c>
       <c r="M32" t="n">
-        <v>926.3413643191344</v>
+        <v>926.3413643191348</v>
       </c>
       <c r="N32" t="n">
         <v>1213.060921153725</v>
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>88.90972702207205</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="C33" t="n">
-        <v>88.90972702207205</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="D33" t="n">
-        <v>88.90972702207205</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="E33" t="n">
-        <v>88.90972702207205</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="F33" t="n">
-        <v>88.90972702207205</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="G33" t="n">
-        <v>88.90972702207205</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="H33" t="n">
-        <v>88.90972702207205</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="I33" t="n">
-        <v>88.90972702207205</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="J33" t="n">
         <v>35.92166172201684</v>
       </c>
       <c r="K33" t="n">
-        <v>73.91372875432148</v>
+        <v>73.91372875432145</v>
       </c>
       <c r="L33" t="n">
-        <v>191.2852937261398</v>
+        <v>191.2852937261397</v>
       </c>
       <c r="M33" t="n">
-        <v>373.0070382066378</v>
+        <v>373.0070382066377</v>
       </c>
       <c r="N33" t="n">
-        <v>577.9583061004876</v>
+        <v>577.9583061004874</v>
       </c>
       <c r="O33" t="n">
-        <v>709.7015933827745</v>
+        <v>709.7015933827743</v>
       </c>
       <c r="P33" t="n">
-        <v>793.3606943740705</v>
+        <v>793.3606943740702</v>
       </c>
       <c r="Q33" t="n">
-        <v>786.4450312622841</v>
+        <v>786.4450312622838</v>
       </c>
       <c r="R33" t="n">
-        <v>650.375699595179</v>
+        <v>781.3443959661429</v>
       </c>
       <c r="S33" t="n">
-        <v>650.375699595179</v>
+        <v>587.8217172862722</v>
       </c>
       <c r="T33" t="n">
-        <v>648.8572932538955</v>
+        <v>586.3033109449888</v>
       </c>
       <c r="U33" t="n">
-        <v>624.856201333797</v>
+        <v>346.6790102693017</v>
       </c>
       <c r="V33" t="n">
-        <v>597.3996919930197</v>
+        <v>319.2225009285244</v>
       </c>
       <c r="W33" t="n">
-        <v>328.001122723311</v>
+        <v>265.4471404144043</v>
       </c>
       <c r="X33" t="n">
-        <v>324.116337095596</v>
+        <v>261.5623547866892</v>
       </c>
       <c r="Y33" t="n">
-        <v>267.4455799490071</v>
+        <v>35.92166172201684</v>
       </c>
     </row>
     <row r="34">
@@ -6832,52 +6832,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>71.41321716505078</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="C34" t="n">
-        <v>71.41321716505078</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="D34" t="n">
-        <v>139.0147003181995</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="E34" t="n">
-        <v>139.0147003181995</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="F34" t="n">
-        <v>139.0147003181995</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="G34" t="n">
-        <v>183.3333892600922</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="H34" t="n">
-        <v>183.3333892600922</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="I34" t="n">
-        <v>183.3333892600922</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="J34" t="n">
-        <v>183.3333892600922</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="K34" t="n">
-        <v>183.3333892600922</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="L34" t="n">
-        <v>183.3333892600922</v>
+        <v>82.09718027320753</v>
       </c>
       <c r="M34" t="n">
-        <v>266.2898381224439</v>
+        <v>82.09718027320753</v>
       </c>
       <c r="N34" t="n">
-        <v>266.2898381224439</v>
+        <v>82.09718027320753</v>
       </c>
       <c r="O34" t="n">
-        <v>266.2898381224439</v>
+        <v>256.3464833623379</v>
       </c>
       <c r="P34" t="n">
-        <v>266.2898381224439</v>
+        <v>256.3464833623379</v>
       </c>
       <c r="Q34" t="n">
-        <v>266.2898381224439</v>
+        <v>256.3464833623379</v>
       </c>
       <c r="R34" t="n">
         <v>266.2898381224439</v>
@@ -6911,55 +6911,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.011976583746</v>
+        <v>623.0119765837459</v>
       </c>
       <c r="C35" t="n">
-        <v>544.0768043248354</v>
+        <v>544.0768043248352</v>
       </c>
       <c r="D35" t="n">
-        <v>477.7005590749668</v>
+        <v>477.7005590749666</v>
       </c>
       <c r="E35" t="n">
-        <v>377.2770891590285</v>
+        <v>377.2770891590283</v>
       </c>
       <c r="F35" t="n">
-        <v>244.8128742144263</v>
+        <v>244.8128742144258</v>
       </c>
       <c r="G35" t="n">
-        <v>96.55210643589356</v>
+        <v>96.55210643589363</v>
       </c>
       <c r="H35" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="I35" t="n">
-        <v>51.58890486516582</v>
+        <v>51.58890486516576</v>
       </c>
       <c r="J35" t="n">
-        <v>51.58890486516582</v>
+        <v>244.9424160029269</v>
       </c>
       <c r="K35" t="n">
-        <v>309.4427153950484</v>
+        <v>244.9424160029269</v>
       </c>
       <c r="L35" t="n">
-        <v>356.2160536253424</v>
+        <v>502.7962265328096</v>
       </c>
       <c r="M35" t="n">
-        <v>525.0378642438701</v>
+        <v>583.7165372559613</v>
       </c>
       <c r="N35" t="n">
-        <v>782.8916747737527</v>
+        <v>841.570347785844</v>
       </c>
       <c r="O35" t="n">
-        <v>817.1683584071823</v>
+        <v>921.3014956112872</v>
       </c>
       <c r="P35" t="n">
-        <v>817.1683584071823</v>
+        <v>921.3014956112872</v>
       </c>
       <c r="Q35" t="n">
-        <v>997.7287420164702</v>
+        <v>921.3014956112872</v>
       </c>
       <c r="R35" t="n">
-        <v>997.7287420164702</v>
+        <v>997.7287420164704</v>
       </c>
       <c r="S35" t="n">
         <v>1041.833577898516</v>
@@ -6971,7 +6971,7 @@
         <v>1041.833577898516</v>
       </c>
       <c r="V35" t="n">
-        <v>992.520338742662</v>
+        <v>992.5203387426623</v>
       </c>
       <c r="W35" t="n">
         <v>926.0185337114403</v>
@@ -6980,7 +6980,7 @@
         <v>837.4094049742193</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.07012156655</v>
+        <v>726.0701215665499</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20.83667155797031</v>
+        <v>141.9707173686087</v>
       </c>
       <c r="C36" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="D36" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="E36" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="F36" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="G36" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="H36" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="I36" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="J36" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="K36" t="n">
-        <v>58.82873859027497</v>
+        <v>58.82873859027494</v>
       </c>
       <c r="L36" t="n">
-        <v>176.2003035620933</v>
+        <v>176.2003035620932</v>
       </c>
       <c r="M36" t="n">
-        <v>357.9220480425914</v>
+        <v>357.9220480425912</v>
       </c>
       <c r="N36" t="n">
-        <v>562.873315936441</v>
+        <v>562.8733159364409</v>
       </c>
       <c r="O36" t="n">
-        <v>694.616603218728</v>
+        <v>694.6166032187277</v>
       </c>
       <c r="P36" t="n">
-        <v>778.2757042100239</v>
+        <v>778.2757042100237</v>
       </c>
       <c r="Q36" t="n">
-        <v>778.2757042100239</v>
+        <v>778.2757042100237</v>
       </c>
       <c r="R36" t="n">
-        <v>642.2063725429188</v>
+        <v>778.2757042100237</v>
       </c>
       <c r="S36" t="n">
-        <v>448.6836938630481</v>
+        <v>584.7530255301531</v>
       </c>
       <c r="T36" t="n">
-        <v>448.6836938630481</v>
+        <v>367.6114104332811</v>
       </c>
       <c r="U36" t="n">
-        <v>448.6836938630481</v>
+        <v>367.6114104332811</v>
       </c>
       <c r="V36" t="n">
-        <v>448.6836938630481</v>
+        <v>367.6114104332811</v>
       </c>
       <c r="W36" t="n">
-        <v>246.4773646226427</v>
+        <v>367.6114104332811</v>
       </c>
       <c r="X36" t="n">
-        <v>246.4773646226427</v>
+        <v>367.6114104332811</v>
       </c>
       <c r="Y36" t="n">
-        <v>20.83667155797031</v>
+        <v>141.9707173686087</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="C37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="D37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="E37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="F37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="G37" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="H37" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="I37" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="J37" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="K37" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="L37" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="M37" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="N37" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="O37" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="P37" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="Q37" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="R37" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="S37" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="T37" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="U37" t="n">
-        <v>39.27205564330161</v>
+        <v>39.27205564330168</v>
       </c>
       <c r="V37" t="n">
-        <v>39.27205564330161</v>
+        <v>39.27205564330168</v>
       </c>
       <c r="W37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="X37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="Y37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.0119765837463</v>
+        <v>623.0119765837462</v>
       </c>
       <c r="C38" t="n">
-        <v>544.0768043248357</v>
+        <v>544.0768043248356</v>
       </c>
       <c r="D38" t="n">
-        <v>477.700559074967</v>
+        <v>477.7005590749669</v>
       </c>
       <c r="E38" t="n">
-        <v>377.2770891590288</v>
+        <v>377.2770891590287</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8128742144266</v>
+        <v>244.8128742144264</v>
       </c>
       <c r="G38" t="n">
-        <v>96.55210643589356</v>
+        <v>96.55210643589363</v>
       </c>
       <c r="H38" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="I38" t="n">
-        <v>20.83667155797031</v>
+        <v>51.58890486516576</v>
       </c>
       <c r="J38" t="n">
-        <v>214.1901826957315</v>
+        <v>244.9424160029269</v>
       </c>
       <c r="K38" t="n">
-        <v>320.7190824863101</v>
+        <v>502.7962265328096</v>
       </c>
       <c r="L38" t="n">
-        <v>578.5728930161927</v>
+        <v>549.5695647631035</v>
       </c>
       <c r="M38" t="n">
-        <v>659.4932037393444</v>
+        <v>630.4898754862552</v>
       </c>
       <c r="N38" t="n">
-        <v>734.8804536725825</v>
+        <v>705.8771254194933</v>
       </c>
       <c r="O38" t="n">
-        <v>992.7342642024651</v>
+        <v>740.1538090529227</v>
       </c>
       <c r="P38" t="n">
-        <v>992.7342642024651</v>
+        <v>795.4782877959472</v>
       </c>
       <c r="Q38" t="n">
-        <v>992.7342642024651</v>
+        <v>976.038671405235</v>
       </c>
       <c r="R38" t="n">
-        <v>992.7342642024651</v>
+        <v>976.038671405235</v>
       </c>
       <c r="S38" t="n">
-        <v>992.7342642024651</v>
+        <v>1020.14350728728</v>
       </c>
       <c r="T38" t="n">
-        <v>1041.833577898516</v>
+        <v>1020.14350728728</v>
       </c>
       <c r="U38" t="n">
         <v>1041.833577898516</v>
       </c>
       <c r="V38" t="n">
-        <v>992.5203387426624</v>
+        <v>992.5203387426625</v>
       </c>
       <c r="W38" t="n">
-        <v>926.0185337114406</v>
+        <v>926.0185337114407</v>
       </c>
       <c r="X38" t="n">
         <v>837.4094049742196</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.0701215665504</v>
+        <v>726.0701215665503</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>265.1910356537617</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="C39" t="n">
-        <v>181.6167877969386</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="D39" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="E39" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="F39" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="G39" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="H39" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="I39" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="J39" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="K39" t="n">
-        <v>58.82873859027497</v>
+        <v>58.82873859027494</v>
       </c>
       <c r="L39" t="n">
-        <v>176.2003035620933</v>
+        <v>176.2003035620932</v>
       </c>
       <c r="M39" t="n">
-        <v>357.9220480425914</v>
+        <v>357.9220480425912</v>
       </c>
       <c r="N39" t="n">
-        <v>562.873315936441</v>
+        <v>562.8733159364409</v>
       </c>
       <c r="O39" t="n">
-        <v>694.616603218728</v>
+        <v>694.6166032187277</v>
       </c>
       <c r="P39" t="n">
-        <v>778.2757042100239</v>
+        <v>778.2757042100237</v>
       </c>
       <c r="Q39" t="n">
-        <v>771.3600410982376</v>
+        <v>771.3600410982373</v>
       </c>
       <c r="R39" t="n">
-        <v>771.3600410982376</v>
+        <v>673.4916452968316</v>
       </c>
       <c r="S39" t="n">
-        <v>771.3600410982376</v>
+        <v>479.968966616961</v>
       </c>
       <c r="T39" t="n">
-        <v>771.3600410982376</v>
+        <v>479.968966616961</v>
       </c>
       <c r="U39" t="n">
-        <v>771.3600410982376</v>
+        <v>240.3446659412739</v>
       </c>
       <c r="V39" t="n">
-        <v>528.2803230018717</v>
+        <v>240.3446659412739</v>
       </c>
       <c r="W39" t="n">
-        <v>265.1910356537617</v>
+        <v>240.3446659412739</v>
       </c>
       <c r="X39" t="n">
-        <v>265.1910356537617</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="Y39" t="n">
-        <v>265.1910356537617</v>
+        <v>20.83667155797032</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="C40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="D40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="E40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="F40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="G40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="H40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="I40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="J40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="K40" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="L40" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="M40" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="N40" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="O40" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="P40" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="Q40" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="R40" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="S40" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="T40" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="U40" t="n">
-        <v>39.27205564330161</v>
+        <v>39.27205564330168</v>
       </c>
       <c r="V40" t="n">
-        <v>39.27205564330161</v>
+        <v>39.27205564330168</v>
       </c>
       <c r="W40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="X40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="Y40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
     </row>
     <row r="41">
@@ -7415,28 +7415,28 @@
         <v>260.0383433367451</v>
       </c>
       <c r="L41" t="n">
-        <v>306.8116815670391</v>
+        <v>521.8668979139361</v>
       </c>
       <c r="M41" t="n">
-        <v>626.3188390594041</v>
+        <v>841.3740554063011</v>
       </c>
       <c r="N41" t="n">
-        <v>940.2929357618555</v>
+        <v>1155.348152108752</v>
       </c>
       <c r="O41" t="n">
-        <v>1213.156466164498</v>
+        <v>1189.624835742182</v>
       </c>
       <c r="P41" t="n">
-        <v>1390.102476956267</v>
+        <v>1189.624835742182</v>
       </c>
       <c r="Q41" t="n">
-        <v>1390.102476956267</v>
+        <v>1339.432986044274</v>
       </c>
       <c r="R41" t="n">
-        <v>1390.102476956267</v>
+        <v>1385.107999142262</v>
       </c>
       <c r="S41" t="n">
-        <v>1403.455079531117</v>
+        <v>1385.107999142262</v>
       </c>
       <c r="T41" t="n">
         <v>1403.455079531117</v>
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>581.0048382262314</v>
+        <v>98.529608084438</v>
       </c>
       <c r="C42" t="n">
-        <v>476.2807606188874</v>
+        <v>98.529608084438</v>
       </c>
       <c r="D42" t="n">
-        <v>315.5006443799191</v>
+        <v>98.529608084438</v>
       </c>
       <c r="E42" t="n">
-        <v>315.5006443799191</v>
+        <v>98.529608084438</v>
       </c>
       <c r="F42" t="n">
-        <v>155.0729280971632</v>
+        <v>98.529608084438</v>
       </c>
       <c r="G42" t="n">
-        <v>155.0729280971632</v>
+        <v>98.529608084438</v>
       </c>
       <c r="H42" t="n">
         <v>28.06910159062234</v>
@@ -7491,49 +7491,49 @@
         <v>28.06910159062234</v>
       </c>
       <c r="K42" t="n">
-        <v>66.061168622927</v>
+        <v>66.06116862292697</v>
       </c>
       <c r="L42" t="n">
-        <v>183.4327335947453</v>
+        <v>183.4327335947452</v>
       </c>
       <c r="M42" t="n">
-        <v>365.1544780752434</v>
+        <v>365.1544780752433</v>
       </c>
       <c r="N42" t="n">
-        <v>570.1057459690931</v>
+        <v>570.1057459690929</v>
       </c>
       <c r="O42" t="n">
-        <v>701.84903325138</v>
+        <v>701.8490332513798</v>
       </c>
       <c r="P42" t="n">
-        <v>785.508134242676</v>
+        <v>785.5081342426757</v>
       </c>
       <c r="Q42" t="n">
-        <v>785.508134242676</v>
+        <v>778.5924711308893</v>
       </c>
       <c r="R42" t="n">
-        <v>785.508134242676</v>
+        <v>778.5924711308893</v>
       </c>
       <c r="S42" t="n">
-        <v>785.508134242676</v>
+        <v>585.0697924510187</v>
       </c>
       <c r="T42" t="n">
-        <v>785.508134242676</v>
+        <v>367.9281773541467</v>
       </c>
       <c r="U42" t="n">
-        <v>785.508134242676</v>
+        <v>367.9281773541467</v>
       </c>
       <c r="V42" t="n">
-        <v>785.508134242676</v>
+        <v>367.9281773541467</v>
       </c>
       <c r="W42" t="n">
-        <v>759.5406911531666</v>
+        <v>98.529608084438</v>
       </c>
       <c r="X42" t="n">
-        <v>759.5406911531666</v>
+        <v>98.529608084438</v>
       </c>
       <c r="Y42" t="n">
-        <v>759.5406911531666</v>
+        <v>98.529608084438</v>
       </c>
     </row>
     <row r="43">
@@ -7579,22 +7579,22 @@
         <v>28.06910159062234</v>
       </c>
       <c r="N43" t="n">
-        <v>28.06910159062234</v>
+        <v>107.6066720187313</v>
       </c>
       <c r="O43" t="n">
-        <v>28.06910159062234</v>
+        <v>107.6066720187313</v>
       </c>
       <c r="P43" t="n">
-        <v>130.1759968085602</v>
+        <v>107.6066720187313</v>
       </c>
       <c r="Q43" t="n">
-        <v>130.1759968085602</v>
+        <v>107.6066720187313</v>
       </c>
       <c r="R43" t="n">
-        <v>130.1759968085602</v>
+        <v>107.6066720187313</v>
       </c>
       <c r="S43" t="n">
-        <v>130.1759968085602</v>
+        <v>113.1124553355487</v>
       </c>
       <c r="T43" t="n">
         <v>130.1759968085602</v>
@@ -7646,34 +7646,34 @@
         <v>28.06910159062234</v>
       </c>
       <c r="J44" t="n">
-        <v>190.670379421188</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="K44" t="n">
-        <v>256.3944068818095</v>
+        <v>260.0383433367451</v>
       </c>
       <c r="L44" t="n">
-        <v>541.7545918813166</v>
+        <v>545.3985283362523</v>
       </c>
       <c r="M44" t="n">
-        <v>622.6749026044683</v>
+        <v>864.9056858286173</v>
       </c>
       <c r="N44" t="n">
-        <v>936.6489993069198</v>
+        <v>1112.244468739619</v>
       </c>
       <c r="O44" t="n">
-        <v>970.9256829403494</v>
+        <v>1385.107999142262</v>
       </c>
       <c r="P44" t="n">
-        <v>1194.619313556187</v>
+        <v>1385.107999142262</v>
       </c>
       <c r="Q44" t="n">
-        <v>1344.427463858279</v>
+        <v>1385.107999142262</v>
       </c>
       <c r="R44" t="n">
-        <v>1390.102476956267</v>
+        <v>1385.107999142262</v>
       </c>
       <c r="S44" t="n">
-        <v>1403.455079531117</v>
+        <v>1385.107999142262</v>
       </c>
       <c r="T44" t="n">
         <v>1403.455079531117</v>
@@ -7701,13 +7701,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>201.6323054692079</v>
+        <v>346.5100180899921</v>
       </c>
       <c r="C45" t="n">
-        <v>201.6323054692079</v>
+        <v>157.0977438229558</v>
       </c>
       <c r="D45" t="n">
-        <v>201.6323054692079</v>
+        <v>157.0977438229558</v>
       </c>
       <c r="E45" t="n">
         <v>28.06910159062234</v>
@@ -7728,49 +7728,49 @@
         <v>28.06910159062234</v>
       </c>
       <c r="K45" t="n">
-        <v>66.061168622927</v>
+        <v>66.06116862292697</v>
       </c>
       <c r="L45" t="n">
-        <v>183.4327335947453</v>
+        <v>183.4327335947452</v>
       </c>
       <c r="M45" t="n">
-        <v>365.1544780752434</v>
+        <v>365.1544780752433</v>
       </c>
       <c r="N45" t="n">
-        <v>570.1057459690931</v>
+        <v>570.1057459690929</v>
       </c>
       <c r="O45" t="n">
-        <v>701.84903325138</v>
+        <v>701.8490332513798</v>
       </c>
       <c r="P45" t="n">
-        <v>785.508134242676</v>
+        <v>785.5081342426757</v>
       </c>
       <c r="Q45" t="n">
-        <v>778.5924711308896</v>
+        <v>785.5081342426757</v>
       </c>
       <c r="R45" t="n">
-        <v>778.5924711308896</v>
+        <v>785.5081342426757</v>
       </c>
       <c r="S45" t="n">
-        <v>585.069792451019</v>
+        <v>591.9854555628051</v>
       </c>
       <c r="T45" t="n">
-        <v>367.928177354147</v>
+        <v>591.9854555628051</v>
       </c>
       <c r="U45" t="n">
-        <v>367.928177354147</v>
+        <v>591.9854555628051</v>
       </c>
       <c r="V45" t="n">
-        <v>227.5997485587174</v>
+        <v>591.9854555628051</v>
       </c>
       <c r="W45" t="n">
-        <v>201.6323054692079</v>
+        <v>566.0180124732957</v>
       </c>
       <c r="X45" t="n">
-        <v>201.6323054692079</v>
+        <v>346.5100180899921</v>
       </c>
       <c r="Y45" t="n">
-        <v>201.6323054692079</v>
+        <v>346.5100180899921</v>
       </c>
     </row>
     <row r="46">
@@ -7816,10 +7816,10 @@
         <v>28.06910159062234</v>
       </c>
       <c r="N46" t="n">
-        <v>28.06910159062234</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="O46" t="n">
-        <v>28.06910159062234</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="P46" t="n">
         <v>130.1759968085602</v>
@@ -9009,7 +9009,7 @@
         <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
-        <v>240.3045437566416</v>
+        <v>240.3045437566417</v>
       </c>
       <c r="M15" t="n">
         <v>301.77688131</v>
@@ -9480,10 +9480,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>171.3734735841509</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
-        <v>240.3045437566416</v>
+        <v>240.3045437566417</v>
       </c>
       <c r="M21" t="n">
         <v>301.77688131</v>
@@ -9720,7 +9720,7 @@
         <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
-        <v>240.3045437566415</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M24" t="n">
         <v>301.77688131</v>
@@ -9732,7 +9732,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P24" t="n">
-        <v>206.3638740786793</v>
+        <v>206.3638740786794</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23261,16 +23261,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>159.4425103176719</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>193.1492627370808</v>
+        <v>133.895460030119</v>
       </c>
       <c r="F11" t="n">
-        <v>150.6009031807504</v>
+        <v>224.8696003154582</v>
       </c>
       <c r="G11" t="n">
-        <v>51.9458105704679</v>
+        <v>240.5081876210495</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>44.13476116065492</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>71.82086528673088</v>
+        <v>71.82086528673096</v>
       </c>
       <c r="V11" t="n">
         <v>142.5501342845967</v>
       </c>
       <c r="W11" t="n">
-        <v>159.5668145012115</v>
+        <v>159.5668145012116</v>
       </c>
       <c r="X11" t="n">
         <v>181.4530649701508</v>
       </c>
       <c r="Y11" t="n">
-        <v>203.9559180938945</v>
+        <v>203.9559180938946</v>
       </c>
     </row>
     <row r="12">
@@ -23498,19 +23498,19 @@
         <v>171.8758480566235</v>
       </c>
       <c r="D14" t="n">
-        <v>3.11541780887768</v>
+        <v>159.442510317672</v>
       </c>
       <c r="E14" t="n">
         <v>193.1492627370809</v>
       </c>
       <c r="F14" t="n">
-        <v>224.8696003154582</v>
+        <v>36.30722326487668</v>
       </c>
       <c r="G14" t="n">
-        <v>51.94581057046798</v>
+        <v>117.2155425076036</v>
       </c>
       <c r="H14" t="n">
-        <v>168.6883080494461</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23540,19 +23540,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>16.53078872718768</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>49.17968824550866</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>44.13476116065499</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>71.82086528673096</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>142.5501342845967</v>
       </c>
       <c r="W14" t="n">
         <v>159.5668145012116</v>
@@ -23561,7 +23561,7 @@
         <v>181.4530649701508</v>
       </c>
       <c r="Y14" t="n">
-        <v>203.9559180938946</v>
+        <v>15.39354104331309</v>
       </c>
     </row>
     <row r="15">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1300402.821307584</v>
+        <v>1300402.821307583</v>
       </c>
     </row>
     <row r="6">
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>88193.19951764599</v>
+        <v>88193.19951764595</v>
       </c>
       <c r="C2" t="n">
-        <v>88193.19951764595</v>
+        <v>88193.199517646</v>
       </c>
       <c r="D2" t="n">
-        <v>88193.19951764595</v>
+        <v>88193.19951764597</v>
       </c>
       <c r="E2" t="n">
-        <v>75999.00890204799</v>
+        <v>75999.00890204796</v>
       </c>
       <c r="F2" t="n">
-        <v>75999.00890204799</v>
+        <v>75999.00890204795</v>
       </c>
       <c r="G2" t="n">
+        <v>88371.85488585355</v>
+      </c>
+      <c r="H2" t="n">
         <v>88371.85488585357</v>
-      </c>
-      <c r="H2" t="n">
-        <v>88371.85488585355</v>
       </c>
       <c r="I2" t="n">
         <v>88371.85488585352</v>
       </c>
       <c r="J2" t="n">
-        <v>88371.85488585359</v>
+        <v>88371.85488585364</v>
       </c>
       <c r="K2" t="n">
-        <v>88371.85488585365</v>
+        <v>88371.85488585364</v>
       </c>
       <c r="L2" t="n">
         <v>88371.85488585359</v>
       </c>
       <c r="M2" t="n">
-        <v>88371.85488585352</v>
+        <v>88371.85488585355</v>
       </c>
       <c r="N2" t="n">
-        <v>88371.85488585357</v>
+        <v>88371.85488585355</v>
       </c>
       <c r="O2" t="n">
         <v>88371.85488585364</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>280312.8421842064</v>
+        <v>280312.8421842062</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>95275.95397400469</v>
       </c>
       <c r="M3" t="n">
-        <v>46874.16014145972</v>
+        <v>46874.16014145967</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72403.48181660016</v>
+        <v>72403.48181660021</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>424945.6323940753</v>
       </c>
       <c r="E4" t="n">
-        <v>313741.5002563325</v>
+        <v>313741.5002563324</v>
       </c>
       <c r="F4" t="n">
         <v>313741.5002563324</v>
@@ -26457,7 +26457,7 @@
         <v>384613.9435333004</v>
       </c>
       <c r="P4" t="n">
-        <v>384613.9435333003</v>
+        <v>384613.9435333004</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>28663.94612301865</v>
+        <v>28663.94612301864</v>
       </c>
       <c r="F5" t="n">
         <v>28663.94612301864</v>
@@ -26500,10 +26500,10 @@
         <v>47453.77647951488</v>
       </c>
       <c r="M5" t="n">
-        <v>40915.013666005</v>
+        <v>40915.01366600499</v>
       </c>
       <c r="N5" t="n">
-        <v>40915.013666005</v>
+        <v>40915.01366600499</v>
       </c>
       <c r="O5" t="n">
         <v>43800.23675152496</v>
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-370380.0328764293</v>
+        <v>-370384.4992606345</v>
       </c>
       <c r="C6" t="n">
-        <v>-370380.0328764293</v>
+        <v>-370384.4992606345</v>
       </c>
       <c r="D6" t="n">
-        <v>-370380.0328764293</v>
+        <v>-370384.4992606345</v>
       </c>
       <c r="E6" t="n">
-        <v>-546719.2796615096</v>
+        <v>-547028.6008111045</v>
       </c>
       <c r="F6" t="n">
-        <v>-266406.437477303</v>
+        <v>-266715.7586268982</v>
       </c>
       <c r="G6" t="n">
         <v>-429784.7145905104</v>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>178.3296493245554</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="F2" t="n">
         <v>178.3296493245553</v>
@@ -26707,7 +26707,7 @@
         <v>297.4245917920612</v>
       </c>
       <c r="J2" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="K2" t="n">
         <v>213.4669766680328</v>
@@ -26811,7 +26811,7 @@
         <v>188.5623770505815</v>
       </c>
       <c r="J4" t="n">
-        <v>449.0207715252105</v>
+        <v>449.0207715252104</v>
       </c>
       <c r="K4" t="n">
         <v>449.0207715252105</v>
@@ -26820,10 +26820,10 @@
         <v>449.0207715252105</v>
       </c>
       <c r="M4" t="n">
-        <v>260.4583944746289</v>
+        <v>260.458394474629</v>
       </c>
       <c r="N4" t="n">
-        <v>260.4583944746289</v>
+        <v>260.458394474629</v>
       </c>
       <c r="O4" t="n">
         <v>350.8637698827793</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>178.3296493245554</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>119.0949424675059</v>
       </c>
       <c r="M2" t="n">
-        <v>58.59270017682465</v>
+        <v>58.59270017682459</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.30917227406673</v>
+        <v>63.30917227406678</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.40537540815035</v>
+        <v>90.40537540815029</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>178.3296493245554</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>178.3296493245554</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="C11" t="n">
-        <v>178.3296493245554</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="D11" t="n">
-        <v>178.3296493245554</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="E11" t="n">
-        <v>178.3296493245554</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="F11" t="n">
-        <v>178.3296493245554</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="G11" t="n">
-        <v>178.3296493245554</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="H11" t="n">
-        <v>178.3296493245554</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="I11" t="n">
-        <v>178.3296493245554</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="J11" t="n">
-        <v>178.3296493245554</v>
+        <v>76.75309993802786</v>
       </c>
       <c r="K11" t="n">
-        <v>6.684449518273205</v>
+        <v>6.684449518273233</v>
       </c>
       <c r="L11" t="n">
         <v>141.3165808583654</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>10.55180920273925</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>112.4136397442804</v>
       </c>
       <c r="O11" t="n">
-        <v>12.04236720565568</v>
+        <v>153.9394642895416</v>
       </c>
       <c r="P11" t="n">
-        <v>178.3296493245554</v>
+        <v>15.04365268017754</v>
       </c>
       <c r="Q11" t="n">
-        <v>178.3296493245554</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="R11" t="n">
-        <v>178.3296493245554</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="S11" t="n">
-        <v>178.3296493245554</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="T11" t="n">
-        <v>178.3296493245554</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="U11" t="n">
-        <v>178.3296493245554</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="V11" t="n">
-        <v>178.3296493245554</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="W11" t="n">
-        <v>178.3296493245554</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="X11" t="n">
-        <v>178.3296493245554</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="Y11" t="n">
-        <v>178.3296493245554</v>
+        <v>178.3296493245553</v>
       </c>
     </row>
     <row r="12">
@@ -28169,7 +28169,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>51.25104066960711</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
@@ -28184,13 +28184,13 @@
         <v>148.7444246896586</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I12" t="n">
         <v>107.3572203790713</v>
       </c>
       <c r="J12" t="n">
-        <v>52.45818464705465</v>
+        <v>52.45818464705467</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,31 +28211,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.846506480668513</v>
+        <v>6.846506480668527</v>
       </c>
       <c r="R12" t="n">
-        <v>134.7086383504341</v>
+        <v>134.7086383504342</v>
       </c>
       <c r="S12" t="n">
-        <v>178.3296493245554</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="T12" t="n">
-        <v>178.3296493245554</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="U12" t="n">
-        <v>178.3296493245554</v>
+        <v>48.66568061834866</v>
       </c>
       <c r="V12" t="n">
-        <v>52.0865438648207</v>
+        <v>52.08654386482073</v>
       </c>
       <c r="W12" t="n">
-        <v>178.3296493245554</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="X12" t="n">
-        <v>178.3296493245554</v>
+        <v>55.18122113433881</v>
       </c>
       <c r="Y12" t="n">
-        <v>178.3296493245554</v>
+        <v>178.3296493245553</v>
       </c>
     </row>
     <row r="13">
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>178.3296493245554</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
         <v>166.4571809719723</v>
@@ -28257,64 +28257,64 @@
         <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>138.9268822184467</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="G13" t="n">
         <v>168.7006242014745</v>
       </c>
       <c r="H13" t="n">
-        <v>178.3296493245554</v>
+        <v>165.8230575663656</v>
       </c>
       <c r="I13" t="n">
         <v>164.8484353357569</v>
       </c>
       <c r="J13" t="n">
-        <v>167.3582268184104</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="K13" t="n">
-        <v>67.01246855587065</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="L13" t="n">
-        <v>178.3296493245554</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="M13" t="n">
-        <v>25.19323846374673</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="N13" t="n">
-        <v>178.3296493245554</v>
+        <v>16.49709222984363</v>
       </c>
       <c r="O13" t="n">
-        <v>178.3296493245554</v>
+        <v>37.45757960830507</v>
       </c>
       <c r="P13" t="n">
-        <v>58.46036931460879</v>
+        <v>59.55653530160212</v>
       </c>
       <c r="Q13" t="n">
         <v>127.204364743505</v>
       </c>
       <c r="R13" t="n">
-        <v>178.3296493245554</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="S13" t="n">
-        <v>178.3296493245554</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="T13" t="n">
-        <v>178.3296493245554</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="U13" t="n">
-        <v>178.3296493245554</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="V13" t="n">
-        <v>178.3296493245554</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="W13" t="n">
-        <v>178.3296493245554</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="X13" t="n">
-        <v>178.3296493245554</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="Y13" t="n">
-        <v>178.3296493245554</v>
+        <v>178.3296493245553</v>
       </c>
     </row>
     <row r="14">
@@ -28348,28 +28348,28 @@
         <v>178.3296493245553</v>
       </c>
       <c r="J14" t="n">
-        <v>76.75309993802784</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="K14" t="n">
-        <v>178.3296493245553</v>
+        <v>6.684449518273233</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>106.8246894514384</v>
       </c>
       <c r="N14" t="n">
-        <v>112.4136397442804</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>59.53085624765195</v>
+        <v>135.1884569602487</v>
       </c>
       <c r="P14" t="n">
         <v>178.3296493245553</v>
       </c>
       <c r="Q14" t="n">
-        <v>89.67545097688969</v>
+        <v>89.67545097688972</v>
       </c>
       <c r="R14" t="n">
         <v>178.3296493245553</v>
@@ -28421,13 +28421,13 @@
         <v>148.7444246896586</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I15" t="n">
         <v>107.3572203790713</v>
       </c>
       <c r="J15" t="n">
-        <v>52.45818464705465</v>
+        <v>52.45818464705467</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,28 +28448,28 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.846506480668513</v>
+        <v>6.846506480668527</v>
       </c>
       <c r="R15" t="n">
-        <v>134.7086383504341</v>
+        <v>134.7086383504342</v>
       </c>
       <c r="S15" t="n">
+        <v>3.025074842490397</v>
+      </c>
+      <c r="T15" t="n">
         <v>178.3296493245553</v>
       </c>
-      <c r="T15" t="n">
-        <v>26.40782189532175</v>
-      </c>
       <c r="U15" t="n">
-        <v>76.92976263910651</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="V15" t="n">
-        <v>178.3296493245553</v>
+        <v>124.1578333861287</v>
       </c>
       <c r="W15" t="n">
         <v>178.3296493245553</v>
       </c>
       <c r="X15" t="n">
-        <v>178.3296493245553</v>
+        <v>28.75053738888909</v>
       </c>
       <c r="Y15" t="n">
         <v>178.3296493245553</v>
@@ -28482,10 +28482,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>178.3296493245553</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
-        <v>166.4571809719723</v>
+        <v>166.5976294780301</v>
       </c>
       <c r="D16" t="n">
         <v>145.1826502507107</v>
@@ -28494,7 +28494,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
-        <v>178.3296493245553</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
         <v>178.3296493245553</v>
@@ -28509,22 +28509,22 @@
         <v>178.3296493245553</v>
       </c>
       <c r="K16" t="n">
+        <v>67.01246855587067</v>
+      </c>
+      <c r="L16" t="n">
         <v>178.3296493245553</v>
       </c>
-      <c r="L16" t="n">
-        <v>32.12940745055727</v>
-      </c>
       <c r="M16" t="n">
-        <v>160.9310196978299</v>
+        <v>25.19323846374675</v>
       </c>
       <c r="N16" t="n">
-        <v>16.49709222984362</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="O16" t="n">
+        <v>37.45757960830507</v>
+      </c>
+      <c r="P16" t="n">
         <v>178.3296493245553</v>
-      </c>
-      <c r="P16" t="n">
-        <v>58.46036931460879</v>
       </c>
       <c r="Q16" t="n">
         <v>127.204364743505</v>
@@ -28585,10 +28585,10 @@
         <v>240.9968149183972</v>
       </c>
       <c r="J17" t="n">
-        <v>76.75309993802784</v>
+        <v>76.75309993802787</v>
       </c>
       <c r="K17" t="n">
-        <v>6.684449518273205</v>
+        <v>195.2468265688548</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28597,16 +28597,16 @@
         <v>106.8246894514384</v>
       </c>
       <c r="N17" t="n">
-        <v>112.4136397442804</v>
+        <v>112.4136397442805</v>
       </c>
       <c r="O17" t="n">
-        <v>153.9394642895416</v>
+        <v>99.07498619629189</v>
       </c>
       <c r="P17" t="n">
-        <v>101.4674744567344</v>
+        <v>15.04365268017755</v>
       </c>
       <c r="Q17" t="n">
-        <v>89.67545097688969</v>
+        <v>89.67545097688972</v>
       </c>
       <c r="R17" t="n">
         <v>194.860438051743</v>
@@ -28618,7 +28618,7 @@
         <v>222.4644104852103</v>
       </c>
       <c r="U17" t="n">
-        <v>297.4245917920612</v>
+        <v>250.1505146112862</v>
       </c>
       <c r="V17" t="n">
         <v>297.4245917920612</v>
@@ -28640,13 +28640,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
         <v>171.8275718397997</v>
@@ -28658,13 +28658,13 @@
         <v>148.7444246896586</v>
       </c>
       <c r="H18" t="n">
-        <v>64.9666229117543</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I18" t="n">
         <v>107.3572203790713</v>
       </c>
       <c r="J18" t="n">
-        <v>52.45818464705465</v>
+        <v>52.45818464705467</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,16 +28685,16 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.846506480668513</v>
+        <v>6.846506480668531</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>191.5874518930719</v>
+        <v>3.025074842490397</v>
       </c>
       <c r="T18" t="n">
-        <v>26.40782189532175</v>
+        <v>214.9701989459033</v>
       </c>
       <c r="U18" t="n">
         <v>237.2280576689302</v>
@@ -28703,13 +28703,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>266.7045835770116</v>
+        <v>223.5155975683778</v>
       </c>
       <c r="X18" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>34.82190908344407</v>
+        <v>34.8219090834441</v>
       </c>
     </row>
     <row r="19">
@@ -28746,22 +28746,22 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K19" t="n">
-        <v>67.01246855587065</v>
+        <v>67.01246855587067</v>
       </c>
       <c r="L19" t="n">
-        <v>32.12940745055727</v>
+        <v>32.1294074505573</v>
       </c>
       <c r="M19" t="n">
-        <v>25.19323846374673</v>
+        <v>25.19323846374675</v>
       </c>
       <c r="N19" t="n">
-        <v>16.49709222984362</v>
+        <v>16.49709222984364</v>
       </c>
       <c r="O19" t="n">
-        <v>37.45757960830505</v>
+        <v>37.45757960830507</v>
       </c>
       <c r="P19" t="n">
-        <v>58.46036931460879</v>
+        <v>58.4603693146088</v>
       </c>
       <c r="Q19" t="n">
         <v>127.204364743505</v>
@@ -28822,10 +28822,10 @@
         <v>240.9968149183972</v>
       </c>
       <c r="J20" t="n">
-        <v>76.75309993802784</v>
+        <v>76.75309993802786</v>
       </c>
       <c r="K20" t="n">
-        <v>6.684449518273205</v>
+        <v>195.2468265688547</v>
       </c>
       <c r="L20" t="n">
         <v>141.3165808583654</v>
@@ -28840,19 +28840,19 @@
         <v>153.9394642895416</v>
       </c>
       <c r="P20" t="n">
-        <v>15.04365268017751</v>
+        <v>15.04365268017754</v>
       </c>
       <c r="Q20" t="n">
-        <v>278.2378280274712</v>
+        <v>89.67545097688972</v>
       </c>
       <c r="R20" t="n">
         <v>194.860438051743</v>
       </c>
       <c r="S20" t="n">
-        <v>250.5666078141676</v>
+        <v>227.5093375700639</v>
       </c>
       <c r="T20" t="n">
-        <v>222.4644104852103</v>
+        <v>245.521680729314</v>
       </c>
       <c r="U20" t="n">
         <v>250.1505146112862</v>
@@ -28880,10 +28880,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>106.2460747039506</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
@@ -28898,10 +28898,10 @@
         <v>125.7337882414754</v>
       </c>
       <c r="I21" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>52.45818464705467</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,25 +28922,25 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.846506480668513</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>21.08108129133656</v>
+        <v>134.7086383504342</v>
       </c>
       <c r="S21" t="n">
-        <v>191.5874518930719</v>
+        <v>3.025074842490385</v>
       </c>
       <c r="T21" t="n">
-        <v>26.40782189532175</v>
+        <v>214.9701989459033</v>
       </c>
       <c r="U21" t="n">
-        <v>48.66568061834862</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V21" t="n">
-        <v>52.0865438648207</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>266.7045835770116</v>
+        <v>78.14220652643007</v>
       </c>
       <c r="X21" t="n">
         <v>217.3129144394706</v>
@@ -28983,22 +28983,22 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K22" t="n">
-        <v>67.01246855587065</v>
+        <v>67.01246855587067</v>
       </c>
       <c r="L22" t="n">
-        <v>32.12940745055727</v>
+        <v>32.12940745055729</v>
       </c>
       <c r="M22" t="n">
-        <v>25.19323846374673</v>
+        <v>25.19323846374675</v>
       </c>
       <c r="N22" t="n">
-        <v>16.49709222984362</v>
+        <v>16.49709222984363</v>
       </c>
       <c r="O22" t="n">
-        <v>37.45757960830505</v>
+        <v>37.45757960830507</v>
       </c>
       <c r="P22" t="n">
-        <v>58.46036931460879</v>
+        <v>58.4603693146088</v>
       </c>
       <c r="Q22" t="n">
         <v>127.204364743505</v>
@@ -29059,28 +29059,28 @@
         <v>240.9968149183972</v>
       </c>
       <c r="J23" t="n">
-        <v>76.75309993802784</v>
+        <v>265.3154769886094</v>
       </c>
       <c r="K23" t="n">
-        <v>6.684449518273205</v>
+        <v>136.4071068711435</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>141.3165808583654</v>
       </c>
       <c r="M23" t="n">
-        <v>106.8246894514384</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>153.9394642895416</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>15.04365268017751</v>
+        <v>15.04365268017754</v>
       </c>
       <c r="Q23" t="n">
-        <v>278.2378280274712</v>
+        <v>89.67545097688972</v>
       </c>
       <c r="R23" t="n">
         <v>194.860438051743</v>
@@ -29089,10 +29089,10 @@
         <v>227.5093375700639</v>
       </c>
       <c r="T23" t="n">
-        <v>280.013572136241</v>
+        <v>222.4644104852103</v>
       </c>
       <c r="U23" t="n">
-        <v>250.1505146112862</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="V23" t="n">
         <v>297.4245917920612</v>
@@ -29114,10 +29114,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>176.7504943976657</v>
+        <v>17.51125917218212</v>
       </c>
       <c r="C24" t="n">
-        <v>80.73710094593676</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
         <v>159.1723150765785</v>
@@ -29138,7 +29138,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>52.45818464705467</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29162,25 +29162,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>134.7086383504341</v>
+        <v>134.7086383504342</v>
       </c>
       <c r="S24" t="n">
-        <v>3.025074842490355</v>
+        <v>191.5874518930719</v>
       </c>
       <c r="T24" t="n">
         <v>214.9701989459033</v>
       </c>
       <c r="U24" t="n">
-        <v>237.2280576689302</v>
+        <v>48.66568061834865</v>
       </c>
       <c r="V24" t="n">
-        <v>52.0865438648207</v>
+        <v>52.08654386482073</v>
       </c>
       <c r="W24" t="n">
-        <v>78.14220652643004</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>28.75053738888909</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -29220,22 +29220,22 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K25" t="n">
-        <v>67.01246855587065</v>
+        <v>67.01246855587067</v>
       </c>
       <c r="L25" t="n">
-        <v>32.12940745055727</v>
+        <v>32.12940745055729</v>
       </c>
       <c r="M25" t="n">
-        <v>25.19323846374673</v>
+        <v>25.19323846374675</v>
       </c>
       <c r="N25" t="n">
-        <v>16.49709222984362</v>
+        <v>16.49709222984363</v>
       </c>
       <c r="O25" t="n">
-        <v>37.45757960830505</v>
+        <v>37.45757960830507</v>
       </c>
       <c r="P25" t="n">
-        <v>58.46036931460879</v>
+        <v>58.4603693146088</v>
       </c>
       <c r="Q25" t="n">
         <v>127.204364743505</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="C26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="D26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="E26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="F26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="G26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="H26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="I26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="J26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="K26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="L26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="M26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="N26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="O26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="P26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Q26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="R26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="S26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="T26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="U26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="V26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="W26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="X26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Y26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="27">
@@ -29351,19 +29351,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>160.7850586051113</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
         <v>148.7444246896586</v>
@@ -29375,7 +29375,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J27" t="n">
-        <v>52.45818464705465</v>
+        <v>52.45818464705467</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,31 +29396,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.846506480668513</v>
+        <v>6.846506480668527</v>
       </c>
       <c r="R27" t="n">
-        <v>134.7086383504341</v>
+        <v>134.7086383504342</v>
       </c>
       <c r="S27" t="n">
         <v>191.5874518930719</v>
       </c>
       <c r="T27" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>213.4669766680327</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="X27" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Y27" t="n">
-        <v>127.1674236428078</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="28">
@@ -29451,28 +29451,28 @@
         <v>165.8230575663656</v>
       </c>
       <c r="I28" t="n">
-        <v>209.26982480867</v>
+        <v>164.8484353357569</v>
       </c>
       <c r="J28" t="n">
         <v>120.2289512774728</v>
       </c>
       <c r="K28" t="n">
-        <v>67.01246855587065</v>
+        <v>67.01246855587067</v>
       </c>
       <c r="L28" t="n">
-        <v>32.12940745055727</v>
+        <v>32.12940745055729</v>
       </c>
       <c r="M28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="N28" t="n">
-        <v>16.49709222984362</v>
+        <v>60.91848170275613</v>
       </c>
       <c r="O28" t="n">
-        <v>37.45757960830505</v>
+        <v>37.45757960830507</v>
       </c>
       <c r="P28" t="n">
-        <v>58.46036931460879</v>
+        <v>58.4603693146088</v>
       </c>
       <c r="Q28" t="n">
         <v>127.204364743505</v>
@@ -29481,25 +29481,25 @@
         <v>203.4231839810569</v>
       </c>
       <c r="S28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="T28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="U28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="V28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="W28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="X28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="29">
@@ -29600,19 +29600,19 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>148.7444246896586</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I30" t="n">
         <v>107.3572203790713</v>
       </c>
       <c r="J30" t="n">
-        <v>52.45818464705465</v>
+        <v>52.45818464705467</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,22 +29633,22 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.846506480668513</v>
+        <v>6.846506480668531</v>
       </c>
       <c r="R30" t="n">
-        <v>134.7086383504341</v>
+        <v>134.7086383504342</v>
       </c>
       <c r="S30" t="n">
-        <v>191.5874518930719</v>
+        <v>146.9273036960798</v>
       </c>
       <c r="T30" t="n">
-        <v>135.7171775925876</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="U30" t="n">
         <v>213.4669766680328</v>
       </c>
       <c r="V30" t="n">
-        <v>213.4669766680328</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -29657,7 +29657,7 @@
         <v>213.4669766680328</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="31">
@@ -29670,7 +29670,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C31" t="n">
-        <v>213.4669766680328</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D31" t="n">
         <v>145.1826502507107</v>
@@ -29679,7 +29679,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
-        <v>213.4669766680328</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
         <v>168.7006242014745</v>
@@ -29688,34 +29688,34 @@
         <v>165.8230575663656</v>
       </c>
       <c r="I31" t="n">
-        <v>213.4669766680328</v>
+        <v>164.8484353357569</v>
       </c>
       <c r="J31" t="n">
         <v>120.2289512774728</v>
       </c>
       <c r="K31" t="n">
-        <v>67.01246855587065</v>
+        <v>67.01246855587067</v>
       </c>
       <c r="L31" t="n">
-        <v>32.12940745055727</v>
+        <v>32.1294074505573</v>
       </c>
       <c r="M31" t="n">
-        <v>25.19323846374673</v>
+        <v>25.19323846374675</v>
       </c>
       <c r="N31" t="n">
-        <v>68.97999574214377</v>
+        <v>16.49709222984364</v>
       </c>
       <c r="O31" t="n">
-        <v>37.45757960830505</v>
+        <v>37.45757960830507</v>
       </c>
       <c r="P31" t="n">
-        <v>58.46036931460879</v>
+        <v>204.8928850672796</v>
       </c>
       <c r="Q31" t="n">
-        <v>127.204364743505</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="R31" t="n">
-        <v>213.4669766680328</v>
+        <v>203.4231839810569</v>
       </c>
       <c r="S31" t="n">
         <v>213.4669766680328</v>
@@ -29770,7 +29770,7 @@
         <v>213.4669766680327</v>
       </c>
       <c r="J32" t="n">
-        <v>213.4669766680332</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="K32" t="n">
         <v>213.4669766680327</v>
@@ -29779,7 +29779,7 @@
         <v>213.4669766680327</v>
       </c>
       <c r="M32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680336</v>
       </c>
       <c r="N32" t="n">
         <v>213.4669766680327</v>
@@ -29825,7 +29825,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
         <v>187.5181515243659</v>
@@ -29849,7 +29849,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>52.45818464705467</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29873,28 +29873,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>129.6590094072547</v>
       </c>
       <c r="S33" t="n">
-        <v>191.5874518930719</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>213.4669766680327</v>
       </c>
       <c r="U33" t="n">
-        <v>213.4669766680327</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>213.4669766680327</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="X33" t="n">
         <v>213.4669766680327</v>
       </c>
       <c r="Y33" t="n">
-        <v>167.2802365589027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -29904,13 +29904,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>213.4669766680327</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
-        <v>213.4669766680327</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
         <v>141.676141212225</v>
@@ -29919,7 +29919,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>213.4669766680327</v>
+        <v>168.7006242014745</v>
       </c>
       <c r="H34" t="n">
         <v>165.8230575663656</v>
@@ -29931,28 +29931,28 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K34" t="n">
-        <v>67.01246855587065</v>
+        <v>67.01246855587067</v>
       </c>
       <c r="L34" t="n">
-        <v>32.12940745055727</v>
+        <v>78.77134538105295</v>
       </c>
       <c r="M34" t="n">
-        <v>108.987631254001</v>
+        <v>25.19323846374675</v>
       </c>
       <c r="N34" t="n">
-        <v>16.49709222984362</v>
+        <v>16.49709222984364</v>
       </c>
       <c r="O34" t="n">
-        <v>37.45757960830505</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="P34" t="n">
-        <v>58.46036931460879</v>
+        <v>58.4603693146088</v>
       </c>
       <c r="Q34" t="n">
         <v>127.204364743505</v>
       </c>
       <c r="R34" t="n">
-        <v>203.4231839810569</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="S34" t="n">
         <v>213.4669766680327</v>
@@ -30007,31 +30007,31 @@
         <v>272.0596768448573</v>
       </c>
       <c r="J35" t="n">
-        <v>76.75309993802784</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="K35" t="n">
-        <v>267.1428439929021</v>
+        <v>6.68444951827324</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>213.2125982824129</v>
       </c>
       <c r="M35" t="n">
-        <v>88.78939383371312</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>184.3096571683278</v>
+        <v>184.3096571683279</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>45.91360019395327</v>
       </c>
       <c r="P35" t="n">
-        <v>15.04365268017751</v>
+        <v>15.04365268017755</v>
       </c>
       <c r="Q35" t="n">
+        <v>89.67545097688972</v>
+      </c>
+      <c r="R35" t="n">
         <v>272.0596768448573</v>
-      </c>
-      <c r="R35" t="n">
-        <v>194.860438051743</v>
       </c>
       <c r="S35" t="n">
         <v>272.0596768448573</v>
@@ -30065,7 +30065,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>67.59544617183388</v>
       </c>
       <c r="D36" t="n">
         <v>159.1723150765785</v>
@@ -30086,7 +30086,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J36" t="n">
-        <v>52.45818464705465</v>
+        <v>52.45818464705467</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,16 +30107,16 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.846506480668513</v>
+        <v>6.846506480668531</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>134.7086383504342</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>214.9701989459033</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>237.2280576689302</v>
@@ -30125,7 +30125,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>66.52031762901018</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
@@ -30156,7 +30156,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>204.256079916999</v>
+        <v>168.7006242014745</v>
       </c>
       <c r="H37" t="n">
         <v>165.8230575663656</v>
@@ -30168,22 +30168,22 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K37" t="n">
-        <v>67.01246855587065</v>
+        <v>67.01246855587067</v>
       </c>
       <c r="L37" t="n">
-        <v>32.12940745055727</v>
+        <v>32.1294074505573</v>
       </c>
       <c r="M37" t="n">
-        <v>25.19323846374673</v>
+        <v>25.19323846374675</v>
       </c>
       <c r="N37" t="n">
-        <v>16.49709222984362</v>
+        <v>16.49709222984364</v>
       </c>
       <c r="O37" t="n">
-        <v>37.45757960830505</v>
+        <v>37.45757960830507</v>
       </c>
       <c r="P37" t="n">
-        <v>58.46036931460879</v>
+        <v>58.4603693146088</v>
       </c>
       <c r="Q37" t="n">
         <v>127.204364743505</v>
@@ -30192,7 +30192,7 @@
         <v>203.4231839810569</v>
       </c>
       <c r="S37" t="n">
-        <v>235.4354176286827</v>
+        <v>270.9908733442073</v>
       </c>
       <c r="T37" t="n">
         <v>223.7609144406078</v>
@@ -30241,16 +30241,16 @@
         <v>272.0596768448573</v>
       </c>
       <c r="I38" t="n">
-        <v>240.9968149183972</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="J38" t="n">
         <v>272.0596768448573</v>
       </c>
       <c r="K38" t="n">
-        <v>114.2893988016859</v>
+        <v>267.1428439929022</v>
       </c>
       <c r="L38" t="n">
-        <v>213.2125982824128</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -30259,25 +30259,25 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>225.835481713589</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>15.04365268017751</v>
+        <v>70.92696454181839</v>
       </c>
       <c r="Q38" t="n">
-        <v>89.67545097688969</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="R38" t="n">
         <v>194.860438051743</v>
       </c>
       <c r="S38" t="n">
-        <v>227.5093375700639</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="T38" t="n">
+        <v>222.4644104852103</v>
+      </c>
+      <c r="U38" t="n">
         <v>272.0596768448573</v>
-      </c>
-      <c r="U38" t="n">
-        <v>250.1505146112862</v>
       </c>
       <c r="V38" t="n">
         <v>272.0596768448573</v>
@@ -30302,10 +30302,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>104.779646146111</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
         <v>171.8275718397997</v>
@@ -30323,7 +30323,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J39" t="n">
-        <v>52.45818464705465</v>
+        <v>52.45818464705467</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30347,25 +30347,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>134.7086383504341</v>
+        <v>37.81892650704258</v>
       </c>
       <c r="S39" t="n">
-        <v>191.5874518930719</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>214.9701989459033</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2280576689302</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>6.246189102382687</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -30405,22 +30405,22 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K40" t="n">
-        <v>102.5679242713952</v>
+        <v>67.01246855587067</v>
       </c>
       <c r="L40" t="n">
-        <v>32.12940745055727</v>
+        <v>32.1294074505573</v>
       </c>
       <c r="M40" t="n">
-        <v>25.19323846374673</v>
+        <v>25.19323846374675</v>
       </c>
       <c r="N40" t="n">
-        <v>16.49709222984362</v>
+        <v>16.49709222984364</v>
       </c>
       <c r="O40" t="n">
-        <v>37.45757960830505</v>
+        <v>37.45757960830507</v>
       </c>
       <c r="P40" t="n">
-        <v>58.46036931460879</v>
+        <v>58.4603693146088</v>
       </c>
       <c r="Q40" t="n">
         <v>127.204364743505</v>
@@ -30429,7 +30429,7 @@
         <v>203.4231839810569</v>
       </c>
       <c r="S40" t="n">
-        <v>235.4354176286827</v>
+        <v>270.9908733442073</v>
       </c>
       <c r="T40" t="n">
         <v>223.7609144406078</v>
@@ -30481,13 +30481,13 @@
         <v>240.9968149183972</v>
       </c>
       <c r="J41" t="n">
-        <v>76.75309993802784</v>
+        <v>76.75309993802787</v>
       </c>
       <c r="K41" t="n">
         <v>240.9968149183972</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>217.227491259492</v>
       </c>
       <c r="M41" t="n">
         <v>240.9968149183972</v>
@@ -30496,22 +30496,22 @@
         <v>240.9968149183972</v>
       </c>
       <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>15.04365268017755</v>
+      </c>
+      <c r="Q41" t="n">
         <v>240.9968149183972</v>
       </c>
-      <c r="P41" t="n">
-        <v>193.7769969142873</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>89.67545097688969</v>
-      </c>
       <c r="R41" t="n">
-        <v>194.860438051743</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="S41" t="n">
+        <v>227.5093375700639</v>
+      </c>
+      <c r="T41" t="n">
         <v>240.9968149183972</v>
-      </c>
-      <c r="T41" t="n">
-        <v>222.4644104852103</v>
       </c>
       <c r="U41" t="n">
         <v>240.9968149183972</v>
@@ -30536,31 +30536,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>83.84131469309533</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
         <v>148.7444246896586</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>55.9778868125979</v>
       </c>
       <c r="I42" t="n">
         <v>107.3572203790713</v>
       </c>
       <c r="J42" t="n">
-        <v>52.45818464705465</v>
+        <v>52.45818464705467</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,16 +30581,16 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.846506480668513</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>134.7086383504341</v>
+        <v>134.7086383504342</v>
       </c>
       <c r="S42" t="n">
-        <v>191.5874518930719</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>214.9701989459033</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>237.2280576689302</v>
@@ -30599,7 +30599,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>240.9968149183972</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
@@ -30642,22 +30642,22 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K43" t="n">
-        <v>67.01246855587065</v>
+        <v>67.01246855587067</v>
       </c>
       <c r="L43" t="n">
-        <v>32.12940745055727</v>
+        <v>32.1294074505573</v>
       </c>
       <c r="M43" t="n">
-        <v>25.19323846374673</v>
+        <v>25.19323846374675</v>
       </c>
       <c r="N43" t="n">
-        <v>16.49709222984362</v>
+        <v>96.83807246025671</v>
       </c>
       <c r="O43" t="n">
-        <v>37.45757960830505</v>
+        <v>37.45757960830507</v>
       </c>
       <c r="P43" t="n">
-        <v>161.5986473125259</v>
+        <v>58.4603693146088</v>
       </c>
       <c r="Q43" t="n">
         <v>127.204364743505</v>
@@ -30666,10 +30666,10 @@
         <v>203.4231839810569</v>
       </c>
       <c r="S43" t="n">
-        <v>235.4354176286827</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="T43" t="n">
-        <v>223.7609144406078</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="U43" t="n">
         <v>240.9968149183972</v>
@@ -30718,37 +30718,37 @@
         <v>240.9968149183972</v>
       </c>
       <c r="J44" t="n">
+        <v>76.75309993802787</v>
+      </c>
+      <c r="K44" t="n">
         <v>240.9968149183972</v>
-      </c>
-      <c r="K44" t="n">
-        <v>73.07235604415345</v>
       </c>
       <c r="L44" t="n">
         <v>240.9968149183972</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="N44" t="n">
+        <v>173.6884171492564</v>
+      </c>
+      <c r="O44" t="n">
         <v>240.9968149183972</v>
       </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
       <c r="P44" t="n">
+        <v>15.04365268017755</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>89.67545097688972</v>
+      </c>
+      <c r="R44" t="n">
+        <v>194.860438051743</v>
+      </c>
+      <c r="S44" t="n">
+        <v>227.5093375700639</v>
+      </c>
+      <c r="T44" t="n">
         <v>240.9968149183972</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>240.9968149183972</v>
-      </c>
-      <c r="R44" t="n">
-        <v>240.9968149183972</v>
-      </c>
-      <c r="S44" t="n">
-        <v>240.9968149183972</v>
-      </c>
-      <c r="T44" t="n">
-        <v>222.4644104852103</v>
       </c>
       <c r="U44" t="n">
         <v>240.9968149183972</v>
@@ -30776,13 +30776,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>44.0892160297896</v>
       </c>
       <c r="F45" t="n">
         <v>158.8234391199283</v>
@@ -30797,7 +30797,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J45" t="n">
-        <v>52.45818464705465</v>
+        <v>52.45818464705467</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,28 +30818,28 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.846506480668531</v>
       </c>
       <c r="R45" t="n">
-        <v>134.7086383504341</v>
+        <v>134.7086383504342</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>214.9701989459033</v>
       </c>
       <c r="U45" t="n">
         <v>237.2280576689302</v>
       </c>
       <c r="V45" t="n">
-        <v>101.7237764079269</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
         <v>240.9968149183972</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -30879,22 +30879,22 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K46" t="n">
-        <v>67.01246855587065</v>
+        <v>67.01246855587067</v>
       </c>
       <c r="L46" t="n">
-        <v>32.12940745055727</v>
+        <v>32.1294074505573</v>
       </c>
       <c r="M46" t="n">
-        <v>25.19323846374673</v>
+        <v>25.19323846374675</v>
       </c>
       <c r="N46" t="n">
-        <v>16.49709222984362</v>
+        <v>119.6353702277607</v>
       </c>
       <c r="O46" t="n">
-        <v>37.45757960830505</v>
+        <v>37.45757960830507</v>
       </c>
       <c r="P46" t="n">
-        <v>161.5986473125259</v>
+        <v>58.4603693146088</v>
       </c>
       <c r="Q46" t="n">
         <v>127.204364743505</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4070551490069144</v>
+        <v>0.4070551490069141</v>
       </c>
       <c r="H11" t="n">
-        <v>4.168753544767063</v>
+        <v>4.168753544767061</v>
       </c>
       <c r="I11" t="n">
-        <v>15.69299363208908</v>
+        <v>15.69299363208907</v>
       </c>
       <c r="J11" t="n">
-        <v>34.54829695302563</v>
+        <v>34.54829695302561</v>
       </c>
       <c r="K11" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048829</v>
       </c>
       <c r="L11" t="n">
-        <v>64.23635542690869</v>
+        <v>64.23635542690866</v>
       </c>
       <c r="M11" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306036</v>
       </c>
       <c r="N11" t="n">
-        <v>72.63186787517631</v>
+        <v>72.63186787517627</v>
       </c>
       <c r="O11" t="n">
-        <v>68.5842132372388</v>
+        <v>68.58421323723876</v>
       </c>
       <c r="P11" t="n">
-        <v>58.53503924613059</v>
+        <v>58.53503924613055</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.95737672232045</v>
+        <v>43.95737672232043</v>
       </c>
       <c r="R11" t="n">
-        <v>25.56967800380561</v>
+        <v>25.56967800380559</v>
       </c>
       <c r="S11" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995065</v>
       </c>
       <c r="T11" t="n">
-        <v>1.781883914777769</v>
+        <v>1.781883914777767</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03256441192055314</v>
+        <v>0.03256441192055312</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2177937054332751</v>
+        <v>0.217793705433275</v>
       </c>
       <c r="H12" t="n">
-        <v>2.103428681421368</v>
+        <v>2.103428681421367</v>
       </c>
       <c r="I12" t="n">
-        <v>7.498599068645659</v>
+        <v>7.498599068645654</v>
       </c>
       <c r="J12" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569376</v>
       </c>
       <c r="K12" t="n">
-        <v>35.16890724972321</v>
+        <v>35.16890724972319</v>
       </c>
       <c r="L12" t="n">
-        <v>47.28893590997495</v>
+        <v>47.28893590997492</v>
       </c>
       <c r="M12" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193112</v>
       </c>
       <c r="N12" t="n">
-        <v>56.64451288810432</v>
+        <v>56.64451288810428</v>
       </c>
       <c r="O12" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876697</v>
       </c>
       <c r="P12" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225408</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.80117545144754</v>
+        <v>27.80117545144753</v>
       </c>
       <c r="R12" t="n">
         <v>13.52231444786598</v>
       </c>
       <c r="S12" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868066</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.8778614705841213</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01432853325218916</v>
+        <v>0.01432853325218915</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705196</v>
       </c>
       <c r="H13" t="n">
-        <v>1.623399328074258</v>
+        <v>1.623399328074257</v>
       </c>
       <c r="I13" t="n">
-        <v>5.491007134222539</v>
+        <v>5.491007134222536</v>
       </c>
       <c r="J13" t="n">
-        <v>12.90917850146574</v>
+        <v>12.90917850146573</v>
       </c>
       <c r="K13" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084763</v>
       </c>
       <c r="L13" t="n">
-        <v>27.14629101362618</v>
+        <v>27.14629101362616</v>
       </c>
       <c r="M13" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301063</v>
       </c>
       <c r="N13" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252962</v>
       </c>
       <c r="O13" t="n">
-        <v>25.80839749785128</v>
+        <v>25.80839749785127</v>
       </c>
       <c r="P13" t="n">
-        <v>22.08354259785266</v>
+        <v>22.08354259785265</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.28950021563597</v>
+        <v>15.28950021563596</v>
       </c>
       <c r="R13" t="n">
-        <v>8.209952021119911</v>
+        <v>8.209952021119905</v>
       </c>
       <c r="S13" t="n">
-        <v>3.182061873127147</v>
+        <v>3.182061873127145</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.780161231283129</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009959505080210177</v>
+        <v>0.009959505080210171</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4070551490069144</v>
+        <v>0.4070551490069141</v>
       </c>
       <c r="H14" t="n">
-        <v>4.168753544767063</v>
+        <v>4.168753544767061</v>
       </c>
       <c r="I14" t="n">
-        <v>15.69299363208908</v>
+        <v>15.69299363208907</v>
       </c>
       <c r="J14" t="n">
-        <v>34.54829695302563</v>
+        <v>34.54829695302561</v>
       </c>
       <c r="K14" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048829</v>
       </c>
       <c r="L14" t="n">
-        <v>64.23635542690869</v>
+        <v>64.23635542690866</v>
       </c>
       <c r="M14" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306036</v>
       </c>
       <c r="N14" t="n">
-        <v>72.63186787517631</v>
+        <v>72.63186787517627</v>
       </c>
       <c r="O14" t="n">
-        <v>68.5842132372388</v>
+        <v>68.58421323723876</v>
       </c>
       <c r="P14" t="n">
-        <v>58.53503924613059</v>
+        <v>58.53503924613055</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.95737672232045</v>
+        <v>43.95737672232043</v>
       </c>
       <c r="R14" t="n">
-        <v>25.56967800380561</v>
+        <v>25.56967800380559</v>
       </c>
       <c r="S14" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995065</v>
       </c>
       <c r="T14" t="n">
-        <v>1.781883914777769</v>
+        <v>1.781883914777767</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03256441192055314</v>
+        <v>0.03256441192055312</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2177937054332751</v>
+        <v>0.217793705433275</v>
       </c>
       <c r="H15" t="n">
-        <v>2.103428681421368</v>
+        <v>2.103428681421367</v>
       </c>
       <c r="I15" t="n">
-        <v>7.498599068645659</v>
+        <v>7.498599068645654</v>
       </c>
       <c r="J15" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569376</v>
       </c>
       <c r="K15" t="n">
-        <v>35.16890724972321</v>
+        <v>35.16890724972319</v>
       </c>
       <c r="L15" t="n">
-        <v>47.28893590997495</v>
+        <v>47.28893590997492</v>
       </c>
       <c r="M15" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193112</v>
       </c>
       <c r="N15" t="n">
-        <v>56.64451288810432</v>
+        <v>56.64451288810428</v>
       </c>
       <c r="O15" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876697</v>
       </c>
       <c r="P15" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225408</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.80117545144754</v>
+        <v>27.80117545144753</v>
       </c>
       <c r="R15" t="n">
         <v>13.52231444786598</v>
       </c>
       <c r="S15" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868066</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.8778614705841213</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01432853325218916</v>
+        <v>0.01432853325218915</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705196</v>
       </c>
       <c r="H16" t="n">
-        <v>1.623399328074258</v>
+        <v>1.623399328074257</v>
       </c>
       <c r="I16" t="n">
-        <v>5.491007134222539</v>
+        <v>5.491007134222536</v>
       </c>
       <c r="J16" t="n">
-        <v>12.90917850146574</v>
+        <v>12.90917850146573</v>
       </c>
       <c r="K16" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084763</v>
       </c>
       <c r="L16" t="n">
-        <v>27.14629101362618</v>
+        <v>27.14629101362616</v>
       </c>
       <c r="M16" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301063</v>
       </c>
       <c r="N16" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252962</v>
       </c>
       <c r="O16" t="n">
-        <v>25.80839749785128</v>
+        <v>25.80839749785127</v>
       </c>
       <c r="P16" t="n">
-        <v>22.08354259785266</v>
+        <v>22.08354259785265</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.28950021563597</v>
+        <v>15.28950021563596</v>
       </c>
       <c r="R16" t="n">
-        <v>8.209952021119911</v>
+        <v>8.209952021119905</v>
       </c>
       <c r="S16" t="n">
-        <v>3.182061873127147</v>
+        <v>3.182061873127145</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.780161231283129</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009959505080210177</v>
+        <v>0.009959505080210171</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4070551490069144</v>
+        <v>0.4070551490069141</v>
       </c>
       <c r="H17" t="n">
-        <v>4.168753544767063</v>
+        <v>4.16875354476706</v>
       </c>
       <c r="I17" t="n">
-        <v>15.69299363208908</v>
+        <v>15.69299363208907</v>
       </c>
       <c r="J17" t="n">
-        <v>34.54829695302563</v>
+        <v>34.54829695302561</v>
       </c>
       <c r="K17" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048829</v>
       </c>
       <c r="L17" t="n">
-        <v>64.23635542690869</v>
+        <v>64.23635542690864</v>
       </c>
       <c r="M17" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306036</v>
       </c>
       <c r="N17" t="n">
-        <v>72.63186787517631</v>
+        <v>72.63186787517625</v>
       </c>
       <c r="O17" t="n">
-        <v>68.5842132372388</v>
+        <v>68.58421323723874</v>
       </c>
       <c r="P17" t="n">
-        <v>58.53503924613059</v>
+        <v>58.53503924613054</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.95737672232045</v>
+        <v>43.95737672232043</v>
       </c>
       <c r="R17" t="n">
-        <v>25.56967800380561</v>
+        <v>25.56967800380559</v>
       </c>
       <c r="S17" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995063</v>
       </c>
       <c r="T17" t="n">
-        <v>1.781883914777769</v>
+        <v>1.781883914777767</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03256441192055314</v>
+        <v>0.03256441192055312</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2177937054332751</v>
+        <v>0.217793705433275</v>
       </c>
       <c r="H18" t="n">
-        <v>2.103428681421368</v>
+        <v>2.103428681421367</v>
       </c>
       <c r="I18" t="n">
-        <v>7.498599068645659</v>
+        <v>7.498599068645653</v>
       </c>
       <c r="J18" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569376</v>
       </c>
       <c r="K18" t="n">
-        <v>35.16890724972321</v>
+        <v>35.16890724972318</v>
       </c>
       <c r="L18" t="n">
-        <v>47.28893590997495</v>
+        <v>47.28893590997491</v>
       </c>
       <c r="M18" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193112</v>
       </c>
       <c r="N18" t="n">
-        <v>56.64451288810432</v>
+        <v>56.64451288810427</v>
       </c>
       <c r="O18" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876697</v>
       </c>
       <c r="P18" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225407</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.80117545144754</v>
+        <v>27.80117545144753</v>
       </c>
       <c r="R18" t="n">
-        <v>13.52231444786598</v>
+        <v>13.52231444786597</v>
       </c>
       <c r="S18" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868066</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.8778614705841212</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01432853325218916</v>
+        <v>0.01432853325218915</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705196</v>
       </c>
       <c r="H19" t="n">
-        <v>1.623399328074258</v>
+        <v>1.623399328074257</v>
       </c>
       <c r="I19" t="n">
-        <v>5.491007134222539</v>
+        <v>5.491007134222536</v>
       </c>
       <c r="J19" t="n">
-        <v>12.90917850146574</v>
+        <v>12.90917850146573</v>
       </c>
       <c r="K19" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084763</v>
       </c>
       <c r="L19" t="n">
-        <v>27.14629101362618</v>
+        <v>27.14629101362616</v>
       </c>
       <c r="M19" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301062</v>
       </c>
       <c r="N19" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252962</v>
       </c>
       <c r="O19" t="n">
-        <v>25.80839749785128</v>
+        <v>25.80839749785127</v>
       </c>
       <c r="P19" t="n">
-        <v>22.08354259785266</v>
+        <v>22.08354259785265</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.28950021563597</v>
+        <v>15.28950021563596</v>
       </c>
       <c r="R19" t="n">
-        <v>8.209952021119911</v>
+        <v>8.209952021119905</v>
       </c>
       <c r="S19" t="n">
-        <v>3.182061873127147</v>
+        <v>3.182061873127144</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.7801612312831289</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009959505080210177</v>
+        <v>0.009959505080210169</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4070551490069144</v>
+        <v>0.4070551490069141</v>
       </c>
       <c r="H20" t="n">
-        <v>4.168753544767063</v>
+        <v>4.168753544767061</v>
       </c>
       <c r="I20" t="n">
-        <v>15.69299363208908</v>
+        <v>15.69299363208907</v>
       </c>
       <c r="J20" t="n">
-        <v>34.54829695302563</v>
+        <v>34.54829695302561</v>
       </c>
       <c r="K20" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048829</v>
       </c>
       <c r="L20" t="n">
-        <v>64.23635542690869</v>
+        <v>64.23635542690866</v>
       </c>
       <c r="M20" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306036</v>
       </c>
       <c r="N20" t="n">
-        <v>72.63186787517631</v>
+        <v>72.63186787517627</v>
       </c>
       <c r="O20" t="n">
-        <v>68.5842132372388</v>
+        <v>68.58421323723876</v>
       </c>
       <c r="P20" t="n">
-        <v>58.53503924613059</v>
+        <v>58.53503924613055</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.95737672232045</v>
+        <v>43.95737672232043</v>
       </c>
       <c r="R20" t="n">
-        <v>25.56967800380561</v>
+        <v>25.56967800380559</v>
       </c>
       <c r="S20" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995065</v>
       </c>
       <c r="T20" t="n">
-        <v>1.781883914777769</v>
+        <v>1.781883914777767</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03256441192055314</v>
+        <v>0.03256441192055312</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2177937054332751</v>
+        <v>0.217793705433275</v>
       </c>
       <c r="H21" t="n">
-        <v>2.103428681421368</v>
+        <v>2.103428681421367</v>
       </c>
       <c r="I21" t="n">
-        <v>7.498599068645659</v>
+        <v>7.498599068645654</v>
       </c>
       <c r="J21" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569376</v>
       </c>
       <c r="K21" t="n">
-        <v>35.16890724972321</v>
+        <v>35.16890724972319</v>
       </c>
       <c r="L21" t="n">
-        <v>47.28893590997495</v>
+        <v>47.28893590997492</v>
       </c>
       <c r="M21" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193112</v>
       </c>
       <c r="N21" t="n">
-        <v>56.64451288810432</v>
+        <v>56.64451288810428</v>
       </c>
       <c r="O21" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876697</v>
       </c>
       <c r="P21" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225408</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.80117545144754</v>
+        <v>27.80117545144753</v>
       </c>
       <c r="R21" t="n">
         <v>13.52231444786598</v>
       </c>
       <c r="S21" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868066</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.8778614705841213</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01432853325218916</v>
+        <v>0.01432853325218915</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705196</v>
       </c>
       <c r="H22" t="n">
-        <v>1.623399328074258</v>
+        <v>1.623399328074257</v>
       </c>
       <c r="I22" t="n">
-        <v>5.491007134222539</v>
+        <v>5.491007134222536</v>
       </c>
       <c r="J22" t="n">
-        <v>12.90917850146574</v>
+        <v>12.90917850146573</v>
       </c>
       <c r="K22" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084763</v>
       </c>
       <c r="L22" t="n">
-        <v>27.14629101362618</v>
+        <v>27.14629101362616</v>
       </c>
       <c r="M22" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301063</v>
       </c>
       <c r="N22" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252962</v>
       </c>
       <c r="O22" t="n">
-        <v>25.80839749785128</v>
+        <v>25.80839749785127</v>
       </c>
       <c r="P22" t="n">
-        <v>22.08354259785266</v>
+        <v>22.08354259785265</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.28950021563597</v>
+        <v>15.28950021563596</v>
       </c>
       <c r="R22" t="n">
-        <v>8.209952021119911</v>
+        <v>8.209952021119905</v>
       </c>
       <c r="S22" t="n">
-        <v>3.182061873127147</v>
+        <v>3.182061873127145</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.780161231283129</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009959505080210177</v>
+        <v>0.009959505080210171</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4070551490069144</v>
+        <v>0.4070551490069141</v>
       </c>
       <c r="H23" t="n">
-        <v>4.168753544767063</v>
+        <v>4.168753544767061</v>
       </c>
       <c r="I23" t="n">
-        <v>15.69299363208908</v>
+        <v>15.69299363208907</v>
       </c>
       <c r="J23" t="n">
-        <v>34.54829695302563</v>
+        <v>34.54829695302561</v>
       </c>
       <c r="K23" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048829</v>
       </c>
       <c r="L23" t="n">
-        <v>64.23635542690869</v>
+        <v>64.23635542690866</v>
       </c>
       <c r="M23" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306036</v>
       </c>
       <c r="N23" t="n">
-        <v>72.63186787517631</v>
+        <v>72.63186787517627</v>
       </c>
       <c r="O23" t="n">
-        <v>68.5842132372388</v>
+        <v>68.58421323723876</v>
       </c>
       <c r="P23" t="n">
-        <v>58.53503924613059</v>
+        <v>58.53503924613055</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.95737672232045</v>
+        <v>43.95737672232043</v>
       </c>
       <c r="R23" t="n">
-        <v>25.56967800380561</v>
+        <v>25.56967800380559</v>
       </c>
       <c r="S23" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995065</v>
       </c>
       <c r="T23" t="n">
-        <v>1.781883914777769</v>
+        <v>1.781883914777767</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03256441192055314</v>
+        <v>0.03256441192055312</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2177937054332751</v>
+        <v>0.217793705433275</v>
       </c>
       <c r="H24" t="n">
-        <v>2.103428681421368</v>
+        <v>2.103428681421367</v>
       </c>
       <c r="I24" t="n">
-        <v>7.498599068645659</v>
+        <v>7.498599068645654</v>
       </c>
       <c r="J24" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569376</v>
       </c>
       <c r="K24" t="n">
-        <v>35.16890724972321</v>
+        <v>35.16890724972319</v>
       </c>
       <c r="L24" t="n">
-        <v>47.28893590997495</v>
+        <v>47.28893590997492</v>
       </c>
       <c r="M24" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193112</v>
       </c>
       <c r="N24" t="n">
-        <v>56.64451288810432</v>
+        <v>56.64451288810428</v>
       </c>
       <c r="O24" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876697</v>
       </c>
       <c r="P24" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225408</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.80117545144754</v>
+        <v>27.80117545144753</v>
       </c>
       <c r="R24" t="n">
         <v>13.52231444786598</v>
       </c>
       <c r="S24" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868066</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.8778614705841213</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01432853325218916</v>
+        <v>0.01432853325218915</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705196</v>
       </c>
       <c r="H25" t="n">
-        <v>1.623399328074258</v>
+        <v>1.623399328074257</v>
       </c>
       <c r="I25" t="n">
-        <v>5.491007134222539</v>
+        <v>5.491007134222536</v>
       </c>
       <c r="J25" t="n">
-        <v>12.90917850146574</v>
+        <v>12.90917850146573</v>
       </c>
       <c r="K25" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084763</v>
       </c>
       <c r="L25" t="n">
-        <v>27.14629101362618</v>
+        <v>27.14629101362616</v>
       </c>
       <c r="M25" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301063</v>
       </c>
       <c r="N25" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252962</v>
       </c>
       <c r="O25" t="n">
-        <v>25.80839749785128</v>
+        <v>25.80839749785127</v>
       </c>
       <c r="P25" t="n">
-        <v>22.08354259785266</v>
+        <v>22.08354259785265</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.28950021563597</v>
+        <v>15.28950021563596</v>
       </c>
       <c r="R25" t="n">
-        <v>8.209952021119911</v>
+        <v>8.209952021119905</v>
       </c>
       <c r="S25" t="n">
-        <v>3.182061873127147</v>
+        <v>3.182061873127145</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.780161231283129</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009959505080210177</v>
+        <v>0.009959505080210171</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4070551490069144</v>
+        <v>0.4070551490069141</v>
       </c>
       <c r="H26" t="n">
-        <v>4.168753544767063</v>
+        <v>4.168753544767061</v>
       </c>
       <c r="I26" t="n">
-        <v>15.69299363208908</v>
+        <v>15.69299363208907</v>
       </c>
       <c r="J26" t="n">
-        <v>34.54829695302563</v>
+        <v>34.54829695302561</v>
       </c>
       <c r="K26" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048829</v>
       </c>
       <c r="L26" t="n">
-        <v>64.23635542690869</v>
+        <v>64.23635542690866</v>
       </c>
       <c r="M26" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306036</v>
       </c>
       <c r="N26" t="n">
-        <v>72.63186787517631</v>
+        <v>72.63186787517627</v>
       </c>
       <c r="O26" t="n">
-        <v>68.5842132372388</v>
+        <v>68.58421323723876</v>
       </c>
       <c r="P26" t="n">
-        <v>58.53503924613059</v>
+        <v>58.53503924613055</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.95737672232045</v>
+        <v>43.95737672232043</v>
       </c>
       <c r="R26" t="n">
-        <v>25.56967800380561</v>
+        <v>25.56967800380559</v>
       </c>
       <c r="S26" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995065</v>
       </c>
       <c r="T26" t="n">
-        <v>1.781883914777769</v>
+        <v>1.781883914777767</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03256441192055314</v>
+        <v>0.03256441192055312</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2177937054332751</v>
+        <v>0.217793705433275</v>
       </c>
       <c r="H27" t="n">
-        <v>2.103428681421368</v>
+        <v>2.103428681421367</v>
       </c>
       <c r="I27" t="n">
-        <v>7.498599068645659</v>
+        <v>7.498599068645654</v>
       </c>
       <c r="J27" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569376</v>
       </c>
       <c r="K27" t="n">
-        <v>35.16890724972321</v>
+        <v>35.16890724972319</v>
       </c>
       <c r="L27" t="n">
-        <v>47.28893590997495</v>
+        <v>47.28893590997492</v>
       </c>
       <c r="M27" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193112</v>
       </c>
       <c r="N27" t="n">
-        <v>56.64451288810432</v>
+        <v>56.64451288810428</v>
       </c>
       <c r="O27" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876697</v>
       </c>
       <c r="P27" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225408</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.80117545144754</v>
+        <v>27.80117545144753</v>
       </c>
       <c r="R27" t="n">
         <v>13.52231444786598</v>
       </c>
       <c r="S27" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868066</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.8778614705841213</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01432853325218916</v>
+        <v>0.01432853325218915</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705196</v>
       </c>
       <c r="H28" t="n">
-        <v>1.623399328074258</v>
+        <v>1.623399328074257</v>
       </c>
       <c r="I28" t="n">
-        <v>5.491007134222539</v>
+        <v>5.491007134222536</v>
       </c>
       <c r="J28" t="n">
-        <v>12.90917850146574</v>
+        <v>12.90917850146573</v>
       </c>
       <c r="K28" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084763</v>
       </c>
       <c r="L28" t="n">
-        <v>27.14629101362618</v>
+        <v>27.14629101362616</v>
       </c>
       <c r="M28" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301063</v>
       </c>
       <c r="N28" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252962</v>
       </c>
       <c r="O28" t="n">
-        <v>25.80839749785128</v>
+        <v>25.80839749785127</v>
       </c>
       <c r="P28" t="n">
-        <v>22.08354259785266</v>
+        <v>22.08354259785265</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.28950021563597</v>
+        <v>15.28950021563596</v>
       </c>
       <c r="R28" t="n">
-        <v>8.209952021119911</v>
+        <v>8.209952021119905</v>
       </c>
       <c r="S28" t="n">
-        <v>3.182061873127147</v>
+        <v>3.182061873127145</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.780161231283129</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009959505080210177</v>
+        <v>0.009959505080210171</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4070551490069144</v>
+        <v>0.4070551490069141</v>
       </c>
       <c r="H29" t="n">
-        <v>4.168753544767063</v>
+        <v>4.16875354476706</v>
       </c>
       <c r="I29" t="n">
-        <v>15.69299363208908</v>
+        <v>15.69299363208907</v>
       </c>
       <c r="J29" t="n">
-        <v>34.54829695302563</v>
+        <v>34.54829695302561</v>
       </c>
       <c r="K29" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048829</v>
       </c>
       <c r="L29" t="n">
-        <v>64.23635542690869</v>
+        <v>64.23635542690864</v>
       </c>
       <c r="M29" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306036</v>
       </c>
       <c r="N29" t="n">
-        <v>72.63186787517631</v>
+        <v>72.63186787517625</v>
       </c>
       <c r="O29" t="n">
-        <v>68.5842132372388</v>
+        <v>68.58421323723874</v>
       </c>
       <c r="P29" t="n">
-        <v>58.53503924613059</v>
+        <v>58.53503924613054</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.95737672232045</v>
+        <v>43.95737672232043</v>
       </c>
       <c r="R29" t="n">
-        <v>25.56967800380561</v>
+        <v>25.56967800380559</v>
       </c>
       <c r="S29" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995063</v>
       </c>
       <c r="T29" t="n">
-        <v>1.781883914777769</v>
+        <v>1.781883914777767</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03256441192055314</v>
+        <v>0.03256441192055312</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2177937054332751</v>
+        <v>0.217793705433275</v>
       </c>
       <c r="H30" t="n">
-        <v>2.103428681421368</v>
+        <v>2.103428681421367</v>
       </c>
       <c r="I30" t="n">
-        <v>7.498599068645659</v>
+        <v>7.498599068645653</v>
       </c>
       <c r="J30" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569376</v>
       </c>
       <c r="K30" t="n">
-        <v>35.16890724972321</v>
+        <v>35.16890724972318</v>
       </c>
       <c r="L30" t="n">
-        <v>47.28893590997495</v>
+        <v>47.28893590997491</v>
       </c>
       <c r="M30" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193112</v>
       </c>
       <c r="N30" t="n">
-        <v>56.64451288810432</v>
+        <v>56.64451288810427</v>
       </c>
       <c r="O30" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876697</v>
       </c>
       <c r="P30" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225407</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.80117545144754</v>
+        <v>27.80117545144753</v>
       </c>
       <c r="R30" t="n">
-        <v>13.52231444786598</v>
+        <v>13.52231444786597</v>
       </c>
       <c r="S30" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868066</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.8778614705841212</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01432853325218916</v>
+        <v>0.01432853325218915</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705196</v>
       </c>
       <c r="H31" t="n">
-        <v>1.623399328074258</v>
+        <v>1.623399328074257</v>
       </c>
       <c r="I31" t="n">
-        <v>5.491007134222539</v>
+        <v>5.491007134222536</v>
       </c>
       <c r="J31" t="n">
-        <v>12.90917850146574</v>
+        <v>12.90917850146573</v>
       </c>
       <c r="K31" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084763</v>
       </c>
       <c r="L31" t="n">
-        <v>27.14629101362618</v>
+        <v>27.14629101362616</v>
       </c>
       <c r="M31" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301062</v>
       </c>
       <c r="N31" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252962</v>
       </c>
       <c r="O31" t="n">
-        <v>25.80839749785128</v>
+        <v>25.80839749785127</v>
       </c>
       <c r="P31" t="n">
-        <v>22.08354259785266</v>
+        <v>22.08354259785265</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.28950021563597</v>
+        <v>15.28950021563596</v>
       </c>
       <c r="R31" t="n">
-        <v>8.209952021119911</v>
+        <v>8.209952021119905</v>
       </c>
       <c r="S31" t="n">
-        <v>3.182061873127147</v>
+        <v>3.182061873127144</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.7801612312831289</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009959505080210177</v>
+        <v>0.009959505080210169</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4070551490069144</v>
+        <v>0.4070551490069141</v>
       </c>
       <c r="H32" t="n">
-        <v>4.168753544767063</v>
+        <v>4.16875354476706</v>
       </c>
       <c r="I32" t="n">
-        <v>15.69299363208908</v>
+        <v>15.69299363208907</v>
       </c>
       <c r="J32" t="n">
-        <v>34.54829695302563</v>
+        <v>34.54829695302561</v>
       </c>
       <c r="K32" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048829</v>
       </c>
       <c r="L32" t="n">
-        <v>64.23635542690869</v>
+        <v>64.23635542690864</v>
       </c>
       <c r="M32" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306036</v>
       </c>
       <c r="N32" t="n">
-        <v>72.63186787517631</v>
+        <v>72.63186787517625</v>
       </c>
       <c r="O32" t="n">
-        <v>68.5842132372388</v>
+        <v>68.58421323723874</v>
       </c>
       <c r="P32" t="n">
-        <v>58.53503924613059</v>
+        <v>58.53503924613054</v>
       </c>
       <c r="Q32" t="n">
-        <v>43.95737672232045</v>
+        <v>43.95737672232043</v>
       </c>
       <c r="R32" t="n">
-        <v>25.56967800380561</v>
+        <v>25.56967800380559</v>
       </c>
       <c r="S32" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995063</v>
       </c>
       <c r="T32" t="n">
-        <v>1.781883914777769</v>
+        <v>1.781883914777767</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03256441192055314</v>
+        <v>0.03256441192055312</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2177937054332751</v>
+        <v>0.217793705433275</v>
       </c>
       <c r="H33" t="n">
-        <v>2.103428681421368</v>
+        <v>2.103428681421367</v>
       </c>
       <c r="I33" t="n">
-        <v>7.498599068645659</v>
+        <v>7.498599068645653</v>
       </c>
       <c r="J33" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569376</v>
       </c>
       <c r="K33" t="n">
-        <v>35.16890724972321</v>
+        <v>35.16890724972318</v>
       </c>
       <c r="L33" t="n">
-        <v>47.28893590997495</v>
+        <v>47.28893590997491</v>
       </c>
       <c r="M33" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193112</v>
       </c>
       <c r="N33" t="n">
-        <v>56.64451288810432</v>
+        <v>56.64451288810427</v>
       </c>
       <c r="O33" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876697</v>
       </c>
       <c r="P33" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225407</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.80117545144754</v>
+        <v>27.80117545144753</v>
       </c>
       <c r="R33" t="n">
-        <v>13.52231444786598</v>
+        <v>13.52231444786597</v>
       </c>
       <c r="S33" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868066</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.8778614705841212</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01432853325218916</v>
+        <v>0.01432853325218915</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705196</v>
       </c>
       <c r="H34" t="n">
-        <v>1.623399328074258</v>
+        <v>1.623399328074257</v>
       </c>
       <c r="I34" t="n">
-        <v>5.491007134222539</v>
+        <v>5.491007134222536</v>
       </c>
       <c r="J34" t="n">
-        <v>12.90917850146574</v>
+        <v>12.90917850146573</v>
       </c>
       <c r="K34" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084763</v>
       </c>
       <c r="L34" t="n">
-        <v>27.14629101362618</v>
+        <v>27.14629101362616</v>
       </c>
       <c r="M34" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301062</v>
       </c>
       <c r="N34" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252962</v>
       </c>
       <c r="O34" t="n">
-        <v>25.80839749785128</v>
+        <v>25.80839749785127</v>
       </c>
       <c r="P34" t="n">
-        <v>22.08354259785266</v>
+        <v>22.08354259785265</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.28950021563597</v>
+        <v>15.28950021563596</v>
       </c>
       <c r="R34" t="n">
-        <v>8.209952021119911</v>
+        <v>8.209952021119905</v>
       </c>
       <c r="S34" t="n">
-        <v>3.182061873127147</v>
+        <v>3.182061873127144</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.7801612312831289</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009959505080210177</v>
+        <v>0.009959505080210169</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4070551490069144</v>
+        <v>0.4070551490069141</v>
       </c>
       <c r="H35" t="n">
-        <v>4.168753544767063</v>
+        <v>4.16875354476706</v>
       </c>
       <c r="I35" t="n">
-        <v>15.69299363208908</v>
+        <v>15.69299363208907</v>
       </c>
       <c r="J35" t="n">
-        <v>34.54829695302563</v>
+        <v>34.54829695302561</v>
       </c>
       <c r="K35" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048829</v>
       </c>
       <c r="L35" t="n">
-        <v>64.23635542690869</v>
+        <v>64.23635542690864</v>
       </c>
       <c r="M35" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306036</v>
       </c>
       <c r="N35" t="n">
-        <v>72.63186787517631</v>
+        <v>72.63186787517625</v>
       </c>
       <c r="O35" t="n">
-        <v>68.5842132372388</v>
+        <v>68.58421323723874</v>
       </c>
       <c r="P35" t="n">
-        <v>58.53503924613059</v>
+        <v>58.53503924613054</v>
       </c>
       <c r="Q35" t="n">
-        <v>43.95737672232045</v>
+        <v>43.95737672232043</v>
       </c>
       <c r="R35" t="n">
-        <v>25.56967800380561</v>
+        <v>25.56967800380559</v>
       </c>
       <c r="S35" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995063</v>
       </c>
       <c r="T35" t="n">
-        <v>1.781883914777769</v>
+        <v>1.781883914777767</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03256441192055314</v>
+        <v>0.03256441192055312</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2177937054332751</v>
+        <v>0.217793705433275</v>
       </c>
       <c r="H36" t="n">
-        <v>2.103428681421368</v>
+        <v>2.103428681421367</v>
       </c>
       <c r="I36" t="n">
-        <v>7.498599068645659</v>
+        <v>7.498599068645653</v>
       </c>
       <c r="J36" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569376</v>
       </c>
       <c r="K36" t="n">
-        <v>35.16890724972321</v>
+        <v>35.16890724972318</v>
       </c>
       <c r="L36" t="n">
-        <v>47.28893590997495</v>
+        <v>47.28893590997491</v>
       </c>
       <c r="M36" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193112</v>
       </c>
       <c r="N36" t="n">
-        <v>56.64451288810432</v>
+        <v>56.64451288810427</v>
       </c>
       <c r="O36" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876697</v>
       </c>
       <c r="P36" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225407</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.80117545144754</v>
+        <v>27.80117545144753</v>
       </c>
       <c r="R36" t="n">
-        <v>13.52231444786598</v>
+        <v>13.52231444786597</v>
       </c>
       <c r="S36" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868066</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.8778614705841212</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01432853325218916</v>
+        <v>0.01432853325218915</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705196</v>
       </c>
       <c r="H37" t="n">
-        <v>1.623399328074258</v>
+        <v>1.623399328074257</v>
       </c>
       <c r="I37" t="n">
-        <v>5.491007134222539</v>
+        <v>5.491007134222536</v>
       </c>
       <c r="J37" t="n">
-        <v>12.90917850146574</v>
+        <v>12.90917850146573</v>
       </c>
       <c r="K37" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084763</v>
       </c>
       <c r="L37" t="n">
-        <v>27.14629101362618</v>
+        <v>27.14629101362616</v>
       </c>
       <c r="M37" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301062</v>
       </c>
       <c r="N37" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252962</v>
       </c>
       <c r="O37" t="n">
-        <v>25.80839749785128</v>
+        <v>25.80839749785127</v>
       </c>
       <c r="P37" t="n">
-        <v>22.08354259785266</v>
+        <v>22.08354259785265</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.28950021563597</v>
+        <v>15.28950021563596</v>
       </c>
       <c r="R37" t="n">
-        <v>8.209952021119911</v>
+        <v>8.209952021119905</v>
       </c>
       <c r="S37" t="n">
-        <v>3.182061873127147</v>
+        <v>3.182061873127144</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.7801612312831289</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009959505080210177</v>
+        <v>0.009959505080210169</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4070551490069144</v>
+        <v>0.4070551490069141</v>
       </c>
       <c r="H38" t="n">
-        <v>4.168753544767063</v>
+        <v>4.16875354476706</v>
       </c>
       <c r="I38" t="n">
-        <v>15.69299363208908</v>
+        <v>15.69299363208907</v>
       </c>
       <c r="J38" t="n">
-        <v>34.54829695302563</v>
+        <v>34.54829695302561</v>
       </c>
       <c r="K38" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048829</v>
       </c>
       <c r="L38" t="n">
-        <v>64.23635542690869</v>
+        <v>64.23635542690864</v>
       </c>
       <c r="M38" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306036</v>
       </c>
       <c r="N38" t="n">
-        <v>72.63186787517631</v>
+        <v>72.63186787517625</v>
       </c>
       <c r="O38" t="n">
-        <v>68.5842132372388</v>
+        <v>68.58421323723874</v>
       </c>
       <c r="P38" t="n">
-        <v>58.53503924613059</v>
+        <v>58.53503924613054</v>
       </c>
       <c r="Q38" t="n">
-        <v>43.95737672232045</v>
+        <v>43.95737672232043</v>
       </c>
       <c r="R38" t="n">
-        <v>25.56967800380561</v>
+        <v>25.56967800380559</v>
       </c>
       <c r="S38" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995063</v>
       </c>
       <c r="T38" t="n">
-        <v>1.781883914777769</v>
+        <v>1.781883914777767</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03256441192055314</v>
+        <v>0.03256441192055312</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2177937054332751</v>
+        <v>0.217793705433275</v>
       </c>
       <c r="H39" t="n">
-        <v>2.103428681421368</v>
+        <v>2.103428681421367</v>
       </c>
       <c r="I39" t="n">
-        <v>7.498599068645659</v>
+        <v>7.498599068645653</v>
       </c>
       <c r="J39" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569376</v>
       </c>
       <c r="K39" t="n">
-        <v>35.16890724972321</v>
+        <v>35.16890724972318</v>
       </c>
       <c r="L39" t="n">
-        <v>47.28893590997495</v>
+        <v>47.28893590997491</v>
       </c>
       <c r="M39" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193112</v>
       </c>
       <c r="N39" t="n">
-        <v>56.64451288810432</v>
+        <v>56.64451288810427</v>
       </c>
       <c r="O39" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876697</v>
       </c>
       <c r="P39" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225407</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.80117545144754</v>
+        <v>27.80117545144753</v>
       </c>
       <c r="R39" t="n">
-        <v>13.52231444786598</v>
+        <v>13.52231444786597</v>
       </c>
       <c r="S39" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868066</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.8778614705841212</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01432853325218916</v>
+        <v>0.01432853325218915</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705196</v>
       </c>
       <c r="H40" t="n">
-        <v>1.623399328074258</v>
+        <v>1.623399328074257</v>
       </c>
       <c r="I40" t="n">
-        <v>5.491007134222539</v>
+        <v>5.491007134222536</v>
       </c>
       <c r="J40" t="n">
-        <v>12.90917850146574</v>
+        <v>12.90917850146573</v>
       </c>
       <c r="K40" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084763</v>
       </c>
       <c r="L40" t="n">
-        <v>27.14629101362618</v>
+        <v>27.14629101362616</v>
       </c>
       <c r="M40" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301062</v>
       </c>
       <c r="N40" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252962</v>
       </c>
       <c r="O40" t="n">
-        <v>25.80839749785128</v>
+        <v>25.80839749785127</v>
       </c>
       <c r="P40" t="n">
-        <v>22.08354259785266</v>
+        <v>22.08354259785265</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.28950021563597</v>
+        <v>15.28950021563596</v>
       </c>
       <c r="R40" t="n">
-        <v>8.209952021119911</v>
+        <v>8.209952021119905</v>
       </c>
       <c r="S40" t="n">
-        <v>3.182061873127147</v>
+        <v>3.182061873127144</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.7801612312831289</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009959505080210177</v>
+        <v>0.009959505080210169</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4070551490069144</v>
+        <v>0.4070551490069141</v>
       </c>
       <c r="H41" t="n">
-        <v>4.168753544767063</v>
+        <v>4.16875354476706</v>
       </c>
       <c r="I41" t="n">
-        <v>15.69299363208908</v>
+        <v>15.69299363208907</v>
       </c>
       <c r="J41" t="n">
-        <v>34.54829695302563</v>
+        <v>34.54829695302561</v>
       </c>
       <c r="K41" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048829</v>
       </c>
       <c r="L41" t="n">
-        <v>64.23635542690869</v>
+        <v>64.23635542690864</v>
       </c>
       <c r="M41" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306036</v>
       </c>
       <c r="N41" t="n">
-        <v>72.63186787517631</v>
+        <v>72.63186787517625</v>
       </c>
       <c r="O41" t="n">
-        <v>68.5842132372388</v>
+        <v>68.58421323723874</v>
       </c>
       <c r="P41" t="n">
-        <v>58.53503924613059</v>
+        <v>58.53503924613054</v>
       </c>
       <c r="Q41" t="n">
-        <v>43.95737672232045</v>
+        <v>43.95737672232043</v>
       </c>
       <c r="R41" t="n">
-        <v>25.56967800380561</v>
+        <v>25.56967800380559</v>
       </c>
       <c r="S41" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995063</v>
       </c>
       <c r="T41" t="n">
-        <v>1.781883914777769</v>
+        <v>1.781883914777767</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03256441192055314</v>
+        <v>0.03256441192055312</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2177937054332751</v>
+        <v>0.217793705433275</v>
       </c>
       <c r="H42" t="n">
-        <v>2.103428681421368</v>
+        <v>2.103428681421367</v>
       </c>
       <c r="I42" t="n">
-        <v>7.498599068645659</v>
+        <v>7.498599068645653</v>
       </c>
       <c r="J42" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569376</v>
       </c>
       <c r="K42" t="n">
-        <v>35.16890724972321</v>
+        <v>35.16890724972318</v>
       </c>
       <c r="L42" t="n">
-        <v>47.28893590997495</v>
+        <v>47.28893590997491</v>
       </c>
       <c r="M42" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193112</v>
       </c>
       <c r="N42" t="n">
-        <v>56.64451288810432</v>
+        <v>56.64451288810427</v>
       </c>
       <c r="O42" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876697</v>
       </c>
       <c r="P42" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225407</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.80117545144754</v>
+        <v>27.80117545144753</v>
       </c>
       <c r="R42" t="n">
-        <v>13.52231444786598</v>
+        <v>13.52231444786597</v>
       </c>
       <c r="S42" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868066</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.8778614705841212</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01432853325218916</v>
+        <v>0.01432853325218915</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705196</v>
       </c>
       <c r="H43" t="n">
-        <v>1.623399328074258</v>
+        <v>1.623399328074257</v>
       </c>
       <c r="I43" t="n">
-        <v>5.491007134222539</v>
+        <v>5.491007134222536</v>
       </c>
       <c r="J43" t="n">
-        <v>12.90917850146574</v>
+        <v>12.90917850146573</v>
       </c>
       <c r="K43" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084763</v>
       </c>
       <c r="L43" t="n">
-        <v>27.14629101362618</v>
+        <v>27.14629101362616</v>
       </c>
       <c r="M43" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301062</v>
       </c>
       <c r="N43" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252962</v>
       </c>
       <c r="O43" t="n">
-        <v>25.80839749785128</v>
+        <v>25.80839749785127</v>
       </c>
       <c r="P43" t="n">
-        <v>22.08354259785266</v>
+        <v>22.08354259785265</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.28950021563597</v>
+        <v>15.28950021563596</v>
       </c>
       <c r="R43" t="n">
-        <v>8.209952021119911</v>
+        <v>8.209952021119905</v>
       </c>
       <c r="S43" t="n">
-        <v>3.182061873127147</v>
+        <v>3.182061873127144</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.7801612312831289</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009959505080210177</v>
+        <v>0.009959505080210169</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4070551490069144</v>
+        <v>0.4070551490069141</v>
       </c>
       <c r="H44" t="n">
-        <v>4.168753544767063</v>
+        <v>4.16875354476706</v>
       </c>
       <c r="I44" t="n">
-        <v>15.69299363208908</v>
+        <v>15.69299363208907</v>
       </c>
       <c r="J44" t="n">
-        <v>34.54829695302563</v>
+        <v>34.54829695302561</v>
       </c>
       <c r="K44" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048829</v>
       </c>
       <c r="L44" t="n">
-        <v>64.23635542690869</v>
+        <v>64.23635542690864</v>
       </c>
       <c r="M44" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306036</v>
       </c>
       <c r="N44" t="n">
-        <v>72.63186787517631</v>
+        <v>72.63186787517625</v>
       </c>
       <c r="O44" t="n">
-        <v>68.5842132372388</v>
+        <v>68.58421323723874</v>
       </c>
       <c r="P44" t="n">
-        <v>58.53503924613059</v>
+        <v>58.53503924613054</v>
       </c>
       <c r="Q44" t="n">
-        <v>43.95737672232045</v>
+        <v>43.95737672232043</v>
       </c>
       <c r="R44" t="n">
-        <v>25.56967800380561</v>
+        <v>25.56967800380559</v>
       </c>
       <c r="S44" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995063</v>
       </c>
       <c r="T44" t="n">
-        <v>1.781883914777769</v>
+        <v>1.781883914777767</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03256441192055314</v>
+        <v>0.03256441192055312</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2177937054332751</v>
+        <v>0.217793705433275</v>
       </c>
       <c r="H45" t="n">
-        <v>2.103428681421368</v>
+        <v>2.103428681421367</v>
       </c>
       <c r="I45" t="n">
-        <v>7.498599068645659</v>
+        <v>7.498599068645653</v>
       </c>
       <c r="J45" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569376</v>
       </c>
       <c r="K45" t="n">
-        <v>35.16890724972321</v>
+        <v>35.16890724972318</v>
       </c>
       <c r="L45" t="n">
-        <v>47.28893590997495</v>
+        <v>47.28893590997491</v>
       </c>
       <c r="M45" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193112</v>
       </c>
       <c r="N45" t="n">
-        <v>56.64451288810432</v>
+        <v>56.64451288810427</v>
       </c>
       <c r="O45" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876697</v>
       </c>
       <c r="P45" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225407</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.80117545144754</v>
+        <v>27.80117545144753</v>
       </c>
       <c r="R45" t="n">
-        <v>13.52231444786598</v>
+        <v>13.52231444786597</v>
       </c>
       <c r="S45" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868066</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.8778614705841212</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01432853325218916</v>
+        <v>0.01432853325218915</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705196</v>
       </c>
       <c r="H46" t="n">
-        <v>1.623399328074258</v>
+        <v>1.623399328074257</v>
       </c>
       <c r="I46" t="n">
-        <v>5.491007134222539</v>
+        <v>5.491007134222536</v>
       </c>
       <c r="J46" t="n">
-        <v>12.90917850146574</v>
+        <v>12.90917850146573</v>
       </c>
       <c r="K46" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084763</v>
       </c>
       <c r="L46" t="n">
-        <v>27.14629101362618</v>
+        <v>27.14629101362616</v>
       </c>
       <c r="M46" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301062</v>
       </c>
       <c r="N46" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252962</v>
       </c>
       <c r="O46" t="n">
-        <v>25.80839749785128</v>
+        <v>25.80839749785127</v>
       </c>
       <c r="P46" t="n">
-        <v>22.08354259785266</v>
+        <v>22.08354259785265</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.28950021563597</v>
+        <v>15.28950021563596</v>
       </c>
       <c r="R46" t="n">
-        <v>8.209952021119911</v>
+        <v>8.209952021119905</v>
       </c>
       <c r="S46" t="n">
-        <v>3.182061873127147</v>
+        <v>3.182061873127144</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.7801612312831289</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009959505080210177</v>
+        <v>0.009959505080210169</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>101.5765493865275</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -35416,19 +35416,19 @@
         <v>188.5623770505815</v>
       </c>
       <c r="M11" t="n">
-        <v>81.73768759914316</v>
+        <v>92.28949680188236</v>
       </c>
       <c r="N11" t="n">
-        <v>76.14873730630111</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="O11" t="n">
-        <v>46.66527996669565</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="P11" t="n">
-        <v>163.2859966443779</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.65419834766567</v>
+        <v>88.65419834766556</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.37582528515622</v>
+        <v>38.3758252851562</v>
       </c>
       <c r="L12" t="n">
         <v>118.55713633517</v>
       </c>
       <c r="M12" t="n">
-        <v>183.5573176570688</v>
+        <v>183.5573176570687</v>
       </c>
       <c r="N12" t="n">
         <v>188.5623770505815</v>
@@ -35504,7 +35504,7 @@
         <v>133.0740275578655</v>
       </c>
       <c r="P12" t="n">
-        <v>84.50414241545049</v>
+        <v>84.50414241545047</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7127286595872704</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -35553,37 +35553,37 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>39.40276710610863</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>12.50659175818974</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>47.12927554093761</v>
+        <v>58.10069804708249</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>111.3171807686846</v>
       </c>
       <c r="L13" t="n">
-        <v>146.2002418739981</v>
+        <v>146.200241873998</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>153.1364108608085</v>
       </c>
       <c r="N13" t="n">
-        <v>161.8325570947117</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>140.8720697162503</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1.096165986993326</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,25 +35644,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>101.5765493865274</v>
       </c>
       <c r="K14" t="n">
-        <v>171.6451998062821</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>47.24579619221612</v>
+        <v>47.24579619221609</v>
       </c>
       <c r="M14" t="n">
-        <v>81.73768759914316</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="N14" t="n">
-        <v>188.5623770505815</v>
+        <v>76.14873730630107</v>
       </c>
       <c r="O14" t="n">
-        <v>94.15376900869192</v>
+        <v>169.8113697212887</v>
       </c>
       <c r="P14" t="n">
-        <v>163.2859966443778</v>
+        <v>163.2859966443777</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,13 +35726,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>38.37582528515622</v>
+        <v>38.3758252851562</v>
       </c>
       <c r="L15" t="n">
-        <v>118.55713633517</v>
+        <v>118.5571363351701</v>
       </c>
       <c r="M15" t="n">
-        <v>183.5573176570688</v>
+        <v>183.5573176570687</v>
       </c>
       <c r="N15" t="n">
         <v>188.5623770505815</v>
@@ -35741,7 +35741,7 @@
         <v>133.0740275578655</v>
       </c>
       <c r="P15" t="n">
-        <v>84.50414241545049</v>
+        <v>84.50414241545047</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35778,10 +35778,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.7127286595871851</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.1404485060577784</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -35790,7 +35790,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>39.40276710610863</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>9.629025123080831</v>
@@ -35799,28 +35799,28 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>13.4812139887984</v>
+        <v>13.48121398879839</v>
       </c>
       <c r="J16" t="n">
-        <v>58.1006980470825</v>
+        <v>58.10069804708249</v>
       </c>
       <c r="K16" t="n">
-        <v>111.3171807686846</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>146.200241873998</v>
       </c>
       <c r="M16" t="n">
-        <v>135.7377812340831</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>161.8325570947116</v>
       </c>
       <c r="O16" t="n">
-        <v>140.8720697162502</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>119.8692800099465</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35884,10 +35884,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="L17" t="n">
-        <v>47.24579619221612</v>
+        <v>47.24579619221608</v>
       </c>
       <c r="M17" t="n">
         <v>188.5623770505815</v>
@@ -35896,10 +35896,10 @@
         <v>188.5623770505815</v>
       </c>
       <c r="O17" t="n">
-        <v>188.5623770505815</v>
+        <v>133.6978989573318</v>
       </c>
       <c r="P17" t="n">
-        <v>86.42382177655693</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35914,7 +35914,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>47.27407718077497</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35963,13 +35963,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.37582528515622</v>
+        <v>38.37582528515619</v>
       </c>
       <c r="L18" t="n">
-        <v>118.55713633517</v>
+        <v>118.5571363351699</v>
       </c>
       <c r="M18" t="n">
-        <v>183.5573176570688</v>
+        <v>183.5573176570687</v>
       </c>
       <c r="N18" t="n">
         <v>188.5623770505815</v>
@@ -35978,7 +35978,7 @@
         <v>133.0740275578655</v>
       </c>
       <c r="P18" t="n">
-        <v>84.50414241545049</v>
+        <v>84.50414241545046</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36121,16 +36121,16 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="L20" t="n">
         <v>188.5623770505815</v>
       </c>
       <c r="M20" t="n">
-        <v>81.73768759914316</v>
+        <v>81.73768759914311</v>
       </c>
       <c r="N20" t="n">
-        <v>76.14873730630111</v>
+        <v>76.14873730630107</v>
       </c>
       <c r="O20" t="n">
         <v>188.5623770505815</v>
@@ -36139,16 +36139,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>188.5623770505815</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>23.05727024410365</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>23.05727024410376</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.37582528515619</v>
+        <v>38.3758252851562</v>
       </c>
       <c r="L21" t="n">
-        <v>118.55713633517</v>
+        <v>118.5571363351701</v>
       </c>
       <c r="M21" t="n">
-        <v>183.5573176570688</v>
+        <v>183.5573176570687</v>
       </c>
       <c r="N21" t="n">
         <v>188.5623770505815</v>
@@ -36215,7 +36215,7 @@
         <v>133.0740275578655</v>
       </c>
       <c r="P21" t="n">
-        <v>84.50414241545049</v>
+        <v>84.50414241545047</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>129.7226573528702</v>
       </c>
       <c r="L23" t="n">
-        <v>47.24579619221612</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="M23" t="n">
-        <v>188.5623770505815</v>
+        <v>81.73768759914311</v>
       </c>
       <c r="N23" t="n">
-        <v>76.14873730630111</v>
+        <v>76.14873730630107</v>
       </c>
       <c r="O23" t="n">
-        <v>188.5623770505815</v>
+        <v>34.62291276103993</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>188.5623770505815</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36385,10 +36385,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>57.54916165103072</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>47.27407718077497</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>38.37582528515622</v>
+        <v>38.3758252851562</v>
       </c>
       <c r="L24" t="n">
         <v>118.55713633517</v>
       </c>
       <c r="M24" t="n">
-        <v>183.5573176570688</v>
+        <v>183.5573176570687</v>
       </c>
       <c r="N24" t="n">
         <v>188.5623770505815</v>
@@ -36452,7 +36452,7 @@
         <v>133.0740275578655</v>
       </c>
       <c r="P24" t="n">
-        <v>84.50414241545049</v>
+        <v>84.5041424154506</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>136.7138767300048</v>
+        <v>136.7138767300049</v>
       </c>
       <c r="K26" t="n">
         <v>206.7825271497595</v>
@@ -36604,7 +36604,7 @@
         <v>295.2046642671759</v>
       </c>
       <c r="N26" t="n">
-        <v>289.6157139743338</v>
+        <v>289.6157139743339</v>
       </c>
       <c r="O26" t="n">
         <v>248.0898894290727</v>
@@ -36613,10 +36613,10 @@
         <v>198.4233239878552</v>
       </c>
       <c r="Q26" t="n">
-        <v>123.791525691143</v>
+        <v>123.7915256911431</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60653861628973</v>
+        <v>18.60653861628981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>38.37582528515622</v>
+        <v>38.3758252851562</v>
       </c>
       <c r="L27" t="n">
         <v>118.55713633517</v>
       </c>
       <c r="M27" t="n">
-        <v>183.5573176570688</v>
+        <v>183.5573176570687</v>
       </c>
       <c r="N27" t="n">
         <v>207.0214827210603</v>
@@ -36689,7 +36689,7 @@
         <v>133.0740275578655</v>
       </c>
       <c r="P27" t="n">
-        <v>84.50414241545049</v>
+        <v>84.50414241545047</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36747,7 +36747,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>44.42138947291312</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -36762,7 +36762,7 @@
         <v>188.273738204286</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>44.42138947291249</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -36832,10 +36832,10 @@
         <v>136.7138767300049</v>
       </c>
       <c r="K29" t="n">
-        <v>206.7825271497596</v>
+        <v>206.7825271497595</v>
       </c>
       <c r="L29" t="n">
-        <v>260.7127728602489</v>
+        <v>260.7127728602488</v>
       </c>
       <c r="M29" t="n">
         <v>295.2046642671759</v>
@@ -36847,7 +36847,7 @@
         <v>248.0898894290727</v>
       </c>
       <c r="P29" t="n">
-        <v>198.4233239878553</v>
+        <v>198.4233239878552</v>
       </c>
       <c r="Q29" t="n">
         <v>123.7915256911431</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>38.37582528515622</v>
+        <v>38.37582528515619</v>
       </c>
       <c r="L30" t="n">
-        <v>118.55713633517</v>
+        <v>118.5571363351699</v>
       </c>
       <c r="M30" t="n">
-        <v>183.5573176570688</v>
+        <v>183.5573176570687</v>
       </c>
       <c r="N30" t="n">
         <v>207.0214827210603</v>
@@ -36926,7 +36926,7 @@
         <v>133.0740275578655</v>
       </c>
       <c r="P30" t="n">
-        <v>84.50414241545049</v>
+        <v>84.50414241545046</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36966,7 +36966,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>47.00979569606042</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -36975,7 +36975,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>74.54009444958612</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36984,7 +36984,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>48.6185413322759</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -36999,19 +36999,19 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>52.48290351230015</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>146.4325157526708</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.26261192452776</v>
       </c>
       <c r="R31" t="n">
-        <v>10.04379268697591</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>136.7138767300053</v>
+        <v>136.7138767300048</v>
       </c>
       <c r="K32" t="n">
         <v>206.7825271497595</v>
@@ -37075,22 +37075,22 @@
         <v>260.7127728602488</v>
       </c>
       <c r="M32" t="n">
-        <v>295.2046642671759</v>
+        <v>295.2046642671767</v>
       </c>
       <c r="N32" t="n">
-        <v>289.6157139743338</v>
+        <v>289.6157139743337</v>
       </c>
       <c r="O32" t="n">
-        <v>248.0898894290727</v>
+        <v>248.0898894290726</v>
       </c>
       <c r="P32" t="n">
-        <v>198.4233239878552</v>
+        <v>198.4233239878551</v>
       </c>
       <c r="Q32" t="n">
         <v>123.791525691143</v>
       </c>
       <c r="R32" t="n">
-        <v>18.60653861628974</v>
+        <v>18.60653861628972</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>38.37582528515622</v>
+        <v>38.37582528515619</v>
       </c>
       <c r="L33" t="n">
-        <v>118.55713633517</v>
+        <v>118.5571363351699</v>
       </c>
       <c r="M33" t="n">
-        <v>183.5573176570688</v>
+        <v>183.5573176570687</v>
       </c>
       <c r="N33" t="n">
         <v>207.0214827210603</v>
@@ -37163,7 +37163,7 @@
         <v>133.0740275578655</v>
       </c>
       <c r="P33" t="n">
-        <v>84.50414241545049</v>
+        <v>84.50414241545046</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37200,13 +37200,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.85005600306459</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>68.28432641732198</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -37215,7 +37215,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>44.76635246655824</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -37230,16 +37230,16 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>46.64193793049565</v>
       </c>
       <c r="M34" t="n">
-        <v>83.79439279025429</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>176.0093970597276</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37248,7 +37248,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>10.04379268697582</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,37 +37300,37 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>31.06286192646011</v>
+        <v>31.06286192646004</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>195.3065769068294</v>
       </c>
       <c r="K35" t="n">
-        <v>260.4583944746289</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>47.24579619221612</v>
+        <v>260.458394474629</v>
       </c>
       <c r="M35" t="n">
-        <v>170.5270814328563</v>
+        <v>81.73768759914311</v>
       </c>
       <c r="N35" t="n">
-        <v>260.4583944746289</v>
+        <v>260.458394474629</v>
       </c>
       <c r="O35" t="n">
-        <v>34.62291276103997</v>
+        <v>80.53651295499319</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>182.3842258679676</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>77.19923879311432</v>
       </c>
       <c r="S35" t="n">
-        <v>44.5503392747934</v>
+        <v>44.55033927479334</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>38.37582528515622</v>
+        <v>38.37582528515619</v>
       </c>
       <c r="L36" t="n">
-        <v>118.55713633517</v>
+        <v>118.5571363351699</v>
       </c>
       <c r="M36" t="n">
-        <v>183.5573176570688</v>
+        <v>183.5573176570687</v>
       </c>
       <c r="N36" t="n">
         <v>207.0214827210603</v>
@@ -37400,7 +37400,7 @@
         <v>133.0740275578655</v>
       </c>
       <c r="P36" t="n">
-        <v>84.50414241545049</v>
+        <v>84.50414241545046</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37452,7 +37452,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>35.55545571552457</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -37488,7 +37488,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>35.55545571552469</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -37537,43 +37537,43 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>31.06286192646004</v>
       </c>
       <c r="J38" t="n">
-        <v>195.3065769068295</v>
+        <v>195.3065769068294</v>
       </c>
       <c r="K38" t="n">
-        <v>107.6049492834127</v>
+        <v>260.458394474629</v>
       </c>
       <c r="L38" t="n">
-        <v>260.4583944746289</v>
+        <v>47.24579619221608</v>
       </c>
       <c r="M38" t="n">
-        <v>81.73768759914316</v>
+        <v>81.73768759914311</v>
       </c>
       <c r="N38" t="n">
-        <v>76.14873730630111</v>
+        <v>76.14873730630106</v>
       </c>
       <c r="O38" t="n">
-        <v>260.4583944746289</v>
+        <v>34.62291276103991</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>55.88331186164083</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>182.3842258679676</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>44.55033927479334</v>
       </c>
       <c r="T38" t="n">
-        <v>49.59526635964706</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>21.90916223357103</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>38.37582528515622</v>
+        <v>38.37582528515619</v>
       </c>
       <c r="L39" t="n">
-        <v>118.55713633517</v>
+        <v>118.5571363351699</v>
       </c>
       <c r="M39" t="n">
-        <v>183.5573176570688</v>
+        <v>183.5573176570687</v>
       </c>
       <c r="N39" t="n">
         <v>207.0214827210603</v>
@@ -37637,7 +37637,7 @@
         <v>133.0740275578655</v>
       </c>
       <c r="P39" t="n">
-        <v>84.50414241545049</v>
+        <v>84.50414241545046</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>35.55545571552457</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -37725,7 +37725,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>35.55545571552469</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>234.312365400124</v>
       </c>
       <c r="L41" t="n">
-        <v>47.24579619221612</v>
+        <v>264.4732874517081</v>
       </c>
       <c r="M41" t="n">
         <v>322.7345025175404</v>
@@ -37792,22 +37792,22 @@
         <v>317.1455522246983</v>
       </c>
       <c r="O41" t="n">
-        <v>275.6197276794372</v>
+        <v>34.62291276103991</v>
       </c>
       <c r="P41" t="n">
-        <v>178.7333442341098</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>151.3213639415075</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>46.13637686665427</v>
       </c>
       <c r="S41" t="n">
-        <v>13.4874773483333</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>18.53240443318696</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37859,13 +37859,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>38.37582528515622</v>
+        <v>38.37582528515619</v>
       </c>
       <c r="L42" t="n">
-        <v>118.55713633517</v>
+        <v>118.5571363351699</v>
       </c>
       <c r="M42" t="n">
-        <v>183.5573176570688</v>
+        <v>183.5573176570687</v>
       </c>
       <c r="N42" t="n">
         <v>207.0214827210603</v>
@@ -37874,7 +37874,7 @@
         <v>133.0740275578655</v>
       </c>
       <c r="P42" t="n">
-        <v>84.50414241545049</v>
+        <v>84.50414241545046</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37947,13 +37947,13 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>80.34098023041308</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>103.1382779979171</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -37962,10 +37962,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>5.561397289714568</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>17.23590047778941</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -38014,37 +38014,37 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>164.2437149803694</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>66.38790652588024</v>
+        <v>234.312365400124</v>
       </c>
       <c r="L44" t="n">
         <v>288.2426111106133</v>
       </c>
       <c r="M44" t="n">
-        <v>81.73768759914316</v>
+        <v>322.7345025175404</v>
       </c>
       <c r="N44" t="n">
-        <v>317.1455522246983</v>
+        <v>249.8371544555575</v>
       </c>
       <c r="O44" t="n">
-        <v>34.62291276103997</v>
+        <v>275.6197276794371</v>
       </c>
       <c r="P44" t="n">
-        <v>225.9531622382197</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>151.3213639415075</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>46.13637686665429</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>13.4874773483333</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>18.53240443318696</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,13 +38096,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>38.37582528515622</v>
+        <v>38.37582528515619</v>
       </c>
       <c r="L45" t="n">
-        <v>118.55713633517</v>
+        <v>118.5571363351699</v>
       </c>
       <c r="M45" t="n">
-        <v>183.5573176570688</v>
+        <v>183.5573176570687</v>
       </c>
       <c r="N45" t="n">
         <v>207.0214827210603</v>
@@ -38111,7 +38111,7 @@
         <v>133.0740275578655</v>
       </c>
       <c r="P45" t="n">
-        <v>84.50414241545049</v>
+        <v>84.50414241545046</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38184,13 +38184,13 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>103.1382779979171</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>103.1382779979171</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
